--- a/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
+++ b/設計書/B1_顧客管理システム/030_アプリ設計/070_データモデル設計/ドメイン定義書_B1_顧客管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBBF8CE-282D-4012-91ED-A92BB28A0091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722C30E-4251-49A3-9837-542D08F84899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="199">
   <si>
     <t>PJ名</t>
   </si>
@@ -1875,10 +1875,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>バージョン番号</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>versionNo</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -1911,7 +1907,59 @@
     <phoneticPr fontId="32"/>
   </si>
   <si>
-    <t>第１．１版</t>
+    <t>min = 0, max = 999999999</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>バージョン番号</t>
+    <rPh sb="5" eb="7">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>min = 0, max = 9,223,372,036,854,775,807</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>数値範囲バリデーション</t>
+    <rPh sb="2" eb="4">
+      <t>ハンイ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>半角数字</t>
+    <rPh sb="0" eb="4">
+      <t>ハンカクスウジ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.2版</t>
+    <rPh sb="3" eb="4">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>顧客IDとバージョン番号をプロジェクト管理システムにあわせて修正</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="32"/>
+  </si>
+  <si>
+    <t>第１．２版</t>
     <rPh sb="0" eb="1">
       <t>ダイ</t>
     </rPh>
@@ -2964,7 +3012,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3159,6 +3207,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3177,15 +3229,153 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3225,15 +3415,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3243,135 +3424,51 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="43" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3399,59 +3496,82 @@
     <xf numFmtId="0" fontId="34" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -3461,14 +3581,149 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3478,14 +3733,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3516,206 +3763,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3741,30 +3802,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -9400,7 +9445,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="23"/>
       <c r="J23" s="14" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -9418,12 +9463,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="94">
+      <c r="I25" s="95">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>44690</v>
-      </c>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
+        <v>44903</v>
+      </c>
+      <c r="J25" s="95"/>
+      <c r="K25" s="95"/>
       <c r="L25" s="23"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9511,44 +9556,44 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7"/>
-      <c r="Q34" s="97"/>
-      <c r="R34" s="98"/>
-      <c r="S34" s="98"/>
+      <c r="Q34" s="98"/>
+      <c r="R34" s="99"/>
+      <c r="S34" s="99"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
-      <c r="Q35" s="98"/>
-      <c r="R35" s="98"/>
-      <c r="S35" s="98"/>
+      <c r="Q35" s="99"/>
+      <c r="R35" s="99"/>
+      <c r="S35" s="99"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="99"/>
-      <c r="P36" s="98"/>
-      <c r="Q36" s="99"/>
-      <c r="R36" s="98"/>
+      <c r="O36" s="100"/>
+      <c r="P36" s="99"/>
+      <c r="Q36" s="100"/>
+      <c r="R36" s="99"/>
       <c r="S36" s="15"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="95"/>
-      <c r="P37" s="96"/>
-      <c r="Q37" s="95"/>
-      <c r="R37" s="96"/>
-      <c r="S37" s="95"/>
+      <c r="O37" s="96"/>
+      <c r="P37" s="97"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="96"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="96"/>
-      <c r="P38" s="96"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="96"/>
-      <c r="S38" s="96"/>
+      <c r="O38" s="97"/>
+      <c r="P38" s="97"/>
+      <c r="Q38" s="97"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="96"/>
-      <c r="P39" s="96"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="96"/>
-      <c r="S39" s="96"/>
+      <c r="O39" s="97"/>
+      <c r="P39" s="97"/>
+      <c r="Q39" s="97"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10058,57 +10103,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="115" t="s">
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="150" t="s">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="T1" s="151"/>
-      <c r="U1" s="151"/>
-      <c r="V1" s="151"/>
-      <c r="W1" s="151"/>
-      <c r="X1" s="151"/>
-      <c r="Y1" s="151"/>
-      <c r="Z1" s="152"/>
-      <c r="AA1" s="100" t="s">
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="118"/>
+      <c r="AA1" s="104" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="106" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="116">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="109">
         <f>IF(D8="","",D8)</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="117"/>
-      <c r="AI1" s="118"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="111"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -10116,53 +10161,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="115" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="154"/>
-      <c r="U2" s="154"/>
-      <c r="V2" s="154"/>
-      <c r="W2" s="154"/>
-      <c r="X2" s="154"/>
-      <c r="Y2" s="154"/>
-      <c r="Z2" s="155"/>
-      <c r="AA2" s="100" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120"/>
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120"/>
+      <c r="Z2" s="121"/>
+      <c r="AA2" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="163" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="116">
+      <c r="AD2" s="164"/>
+      <c r="AE2" s="164"/>
+      <c r="AF2" s="165"/>
+      <c r="AG2" s="109">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="117"/>
-      <c r="AI2" s="118"/>
+        <v>44903</v>
+      </c>
+      <c r="AH2" s="110"/>
+      <c r="AI2" s="111"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -10170,43 +10215,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157"/>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157"/>
-      <c r="X3" s="157"/>
-      <c r="Y3" s="157"/>
-      <c r="Z3" s="158"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="116"/>
-      <c r="AH3" s="117"/>
-      <c r="AI3" s="118"/>
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="122"/>
+      <c r="T3" s="123"/>
+      <c r="U3" s="123"/>
+      <c r="V3" s="123"/>
+      <c r="W3" s="123"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="110"/>
+      <c r="AI3" s="111"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -10345,52 +10390,52 @@
       <c r="A7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="133" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="123"/>
-      <c r="D7" s="122" t="s">
+      <c r="C7" s="134"/>
+      <c r="D7" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="124"/>
-      <c r="F7" s="123"/>
-      <c r="G7" s="122" t="s">
+      <c r="E7" s="135"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="122" t="s">
+      <c r="H7" s="135"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="133" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="124"/>
-      <c r="L7" s="124"/>
-      <c r="M7" s="124"/>
-      <c r="N7" s="124"/>
-      <c r="O7" s="124"/>
-      <c r="P7" s="123"/>
-      <c r="Q7" s="122" t="s">
+      <c r="K7" s="135"/>
+      <c r="L7" s="135"/>
+      <c r="M7" s="135"/>
+      <c r="N7" s="135"/>
+      <c r="O7" s="135"/>
+      <c r="P7" s="134"/>
+      <c r="Q7" s="133" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="124"/>
-      <c r="S7" s="124"/>
-      <c r="T7" s="124"/>
-      <c r="U7" s="124"/>
-      <c r="V7" s="124"/>
-      <c r="W7" s="124"/>
-      <c r="X7" s="124"/>
-      <c r="Y7" s="124"/>
-      <c r="Z7" s="124"/>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="124"/>
-      <c r="AC7" s="124"/>
-      <c r="AD7" s="124"/>
-      <c r="AE7" s="123"/>
-      <c r="AF7" s="122" t="s">
+      <c r="R7" s="135"/>
+      <c r="S7" s="135"/>
+      <c r="T7" s="135"/>
+      <c r="U7" s="135"/>
+      <c r="V7" s="135"/>
+      <c r="W7" s="135"/>
+      <c r="X7" s="135"/>
+      <c r="Y7" s="135"/>
+      <c r="Z7" s="135"/>
+      <c r="AA7" s="135"/>
+      <c r="AB7" s="135"/>
+      <c r="AC7" s="135"/>
+      <c r="AD7" s="135"/>
+      <c r="AE7" s="134"/>
+      <c r="AF7" s="133" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="124"/>
-      <c r="AH7" s="124"/>
-      <c r="AI7" s="123"/>
+      <c r="AG7" s="135"/>
+      <c r="AH7" s="135"/>
+      <c r="AI7" s="134"/>
       <c r="AJ7" s="30"/>
       <c r="AK7" s="30"/>
       <c r="AL7" s="30"/>
@@ -10401,52 +10446,52 @@
       <c r="A8" s="61">
         <v>1</v>
       </c>
-      <c r="B8" s="125" t="s">
+      <c r="B8" s="136" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="126"/>
-      <c r="D8" s="127">
+      <c r="C8" s="137"/>
+      <c r="D8" s="138">
         <v>43718</v>
       </c>
-      <c r="E8" s="128"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="125" t="s">
+      <c r="E8" s="139"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="136" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="130"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="134" t="s">
+      <c r="H8" s="141"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="145" t="s">
         <v>95</v>
       </c>
-      <c r="K8" s="132"/>
-      <c r="L8" s="132"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="132"/>
-      <c r="O8" s="132"/>
-      <c r="P8" s="133"/>
-      <c r="Q8" s="135" t="s">
+      <c r="K8" s="143"/>
+      <c r="L8" s="143"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="143"/>
+      <c r="O8" s="143"/>
+      <c r="P8" s="144"/>
+      <c r="Q8" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="R8" s="136"/>
-      <c r="S8" s="136"/>
-      <c r="T8" s="136"/>
-      <c r="U8" s="136"/>
-      <c r="V8" s="136"/>
-      <c r="W8" s="136"/>
-      <c r="X8" s="136"/>
-      <c r="Y8" s="136"/>
-      <c r="Z8" s="136"/>
-      <c r="AA8" s="136"/>
-      <c r="AB8" s="136"/>
-      <c r="AC8" s="136"/>
-      <c r="AD8" s="136"/>
-      <c r="AE8" s="137"/>
-      <c r="AF8" s="131" t="s">
+      <c r="R8" s="147"/>
+      <c r="S8" s="147"/>
+      <c r="T8" s="147"/>
+      <c r="U8" s="147"/>
+      <c r="V8" s="147"/>
+      <c r="W8" s="147"/>
+      <c r="X8" s="147"/>
+      <c r="Y8" s="147"/>
+      <c r="Z8" s="147"/>
+      <c r="AA8" s="147"/>
+      <c r="AB8" s="147"/>
+      <c r="AC8" s="147"/>
+      <c r="AD8" s="147"/>
+      <c r="AE8" s="148"/>
+      <c r="AF8" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="AG8" s="132"/>
-      <c r="AH8" s="132"/>
-      <c r="AI8" s="133"/>
+      <c r="AG8" s="143"/>
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="144"/>
       <c r="AJ8" s="30"/>
       <c r="AK8" s="30"/>
       <c r="AL8" s="30"/>
@@ -10457,52 +10502,52 @@
       <c r="A9" s="61">
         <v>2</v>
       </c>
-      <c r="B9" s="278" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="140">
+      <c r="B9" s="129" t="s">
+        <v>190</v>
+      </c>
+      <c r="C9" s="128"/>
+      <c r="D9" s="130">
         <v>44690</v>
       </c>
-      <c r="E9" s="141"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="278" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="143"/>
-      <c r="I9" s="139"/>
-      <c r="J9" s="276" t="s">
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="H9" s="127"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
+      <c r="P9" s="103"/>
+      <c r="Q9" s="125" t="s">
         <v>188</v>
       </c>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
-      <c r="M9" s="145"/>
-      <c r="N9" s="145"/>
-      <c r="O9" s="145"/>
-      <c r="P9" s="146"/>
-      <c r="Q9" s="277" t="s">
-        <v>189</v>
-      </c>
-      <c r="R9" s="148"/>
-      <c r="S9" s="148"/>
-      <c r="T9" s="148"/>
-      <c r="U9" s="148"/>
-      <c r="V9" s="148"/>
-      <c r="W9" s="148"/>
-      <c r="X9" s="148"/>
-      <c r="Y9" s="148"/>
-      <c r="Z9" s="148"/>
-      <c r="AA9" s="148"/>
-      <c r="AB9" s="148"/>
-      <c r="AC9" s="148"/>
-      <c r="AD9" s="148"/>
-      <c r="AE9" s="149"/>
-      <c r="AF9" s="276" t="s">
+      <c r="R9" s="113"/>
+      <c r="S9" s="113"/>
+      <c r="T9" s="113"/>
+      <c r="U9" s="113"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="113"/>
+      <c r="X9" s="113"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="113"/>
+      <c r="AB9" s="113"/>
+      <c r="AC9" s="113"/>
+      <c r="AD9" s="113"/>
+      <c r="AE9" s="114"/>
+      <c r="AF9" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="AG9" s="145"/>
-      <c r="AH9" s="145"/>
-      <c r="AI9" s="146"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="103"/>
       <c r="AJ9" s="30"/>
       <c r="AK9" s="30"/>
       <c r="AL9" s="30"/>
@@ -10510,41 +10555,55 @@
       <c r="AN9" s="30"/>
     </row>
     <row r="10" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="61"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="145"/>
-      <c r="L10" s="145"/>
-      <c r="M10" s="145"/>
-      <c r="N10" s="145"/>
-      <c r="O10" s="145"/>
-      <c r="P10" s="146"/>
-      <c r="Q10" s="147"/>
-      <c r="R10" s="148"/>
-      <c r="S10" s="148"/>
-      <c r="T10" s="148"/>
-      <c r="U10" s="148"/>
-      <c r="V10" s="148"/>
-      <c r="W10" s="148"/>
-      <c r="X10" s="148"/>
-      <c r="Y10" s="148"/>
-      <c r="Z10" s="148"/>
-      <c r="AA10" s="148"/>
-      <c r="AB10" s="148"/>
-      <c r="AC10" s="148"/>
-      <c r="AD10" s="148"/>
-      <c r="AE10" s="149"/>
-      <c r="AF10" s="144"/>
-      <c r="AG10" s="145"/>
-      <c r="AH10" s="145"/>
-      <c r="AI10" s="146"/>
+      <c r="A10" s="61">
+        <v>3</v>
+      </c>
+      <c r="B10" s="129" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="128"/>
+      <c r="D10" s="130">
+        <v>44903</v>
+      </c>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="129" t="s">
+        <v>189</v>
+      </c>
+      <c r="H10" s="127"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="115" t="s">
+        <v>187</v>
+      </c>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="102"/>
+      <c r="P10" s="103"/>
+      <c r="Q10" s="125" t="s">
+        <v>197</v>
+      </c>
+      <c r="R10" s="113"/>
+      <c r="S10" s="113"/>
+      <c r="T10" s="113"/>
+      <c r="U10" s="113"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="113"/>
+      <c r="X10" s="113"/>
+      <c r="Y10" s="113"/>
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="113"/>
+      <c r="AB10" s="113"/>
+      <c r="AC10" s="113"/>
+      <c r="AD10" s="113"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG10" s="102"/>
+      <c r="AH10" s="102"/>
+      <c r="AI10" s="103"/>
       <c r="AJ10" s="30"/>
       <c r="AK10" s="30"/>
       <c r="AL10" s="30"/>
@@ -10553,40 +10612,40 @@
     </row>
     <row r="11" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="61"/>
-      <c r="B11" s="138"/>
-      <c r="C11" s="139"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
-      <c r="M11" s="145"/>
-      <c r="N11" s="145"/>
-      <c r="O11" s="145"/>
-      <c r="P11" s="146"/>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="148"/>
-      <c r="S11" s="148"/>
-      <c r="T11" s="148"/>
-      <c r="U11" s="148"/>
-      <c r="V11" s="148"/>
-      <c r="W11" s="148"/>
-      <c r="X11" s="148"/>
-      <c r="Y11" s="148"/>
-      <c r="Z11" s="148"/>
-      <c r="AA11" s="148"/>
-      <c r="AB11" s="148"/>
-      <c r="AC11" s="148"/>
-      <c r="AD11" s="148"/>
-      <c r="AE11" s="149"/>
-      <c r="AF11" s="144"/>
-      <c r="AG11" s="145"/>
-      <c r="AH11" s="145"/>
-      <c r="AI11" s="146"/>
+      <c r="B11" s="126"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="102"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="102"/>
+      <c r="O11" s="102"/>
+      <c r="P11" s="103"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113"/>
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113"/>
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="114"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="102"/>
+      <c r="AH11" s="102"/>
+      <c r="AI11" s="103"/>
       <c r="AJ11" s="30"/>
       <c r="AK11" s="30"/>
       <c r="AL11" s="30"/>
@@ -10595,40 +10654,40 @@
     </row>
     <row r="12" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="61"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="145"/>
-      <c r="L12" s="145"/>
-      <c r="M12" s="145"/>
-      <c r="N12" s="145"/>
-      <c r="O12" s="145"/>
-      <c r="P12" s="146"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="148"/>
-      <c r="S12" s="148"/>
-      <c r="T12" s="148"/>
-      <c r="U12" s="148"/>
-      <c r="V12" s="148"/>
-      <c r="W12" s="148"/>
-      <c r="X12" s="148"/>
-      <c r="Y12" s="148"/>
-      <c r="Z12" s="148"/>
-      <c r="AA12" s="148"/>
-      <c r="AB12" s="148"/>
-      <c r="AC12" s="148"/>
-      <c r="AD12" s="148"/>
-      <c r="AE12" s="149"/>
-      <c r="AF12" s="144"/>
-      <c r="AG12" s="145"/>
-      <c r="AH12" s="145"/>
-      <c r="AI12" s="146"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="128"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="112"/>
+      <c r="R12" s="113"/>
+      <c r="S12" s="113"/>
+      <c r="T12" s="113"/>
+      <c r="U12" s="113"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="113"/>
+      <c r="X12" s="113"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="113"/>
+      <c r="AB12" s="113"/>
+      <c r="AC12" s="113"/>
+      <c r="AD12" s="113"/>
+      <c r="AE12" s="114"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="102"/>
+      <c r="AH12" s="102"/>
+      <c r="AI12" s="103"/>
       <c r="AJ12" s="30"/>
       <c r="AK12" s="30"/>
       <c r="AL12" s="30"/>
@@ -10637,40 +10696,40 @@
     </row>
     <row r="13" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="61"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="139"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="145"/>
-      <c r="L13" s="145"/>
-      <c r="M13" s="145"/>
-      <c r="N13" s="145"/>
-      <c r="O13" s="145"/>
-      <c r="P13" s="146"/>
-      <c r="Q13" s="147"/>
-      <c r="R13" s="148"/>
-      <c r="S13" s="148"/>
-      <c r="T13" s="148"/>
-      <c r="U13" s="148"/>
-      <c r="V13" s="148"/>
-      <c r="W13" s="148"/>
-      <c r="X13" s="148"/>
-      <c r="Y13" s="148"/>
-      <c r="Z13" s="148"/>
-      <c r="AA13" s="148"/>
-      <c r="AB13" s="148"/>
-      <c r="AC13" s="148"/>
-      <c r="AD13" s="148"/>
-      <c r="AE13" s="149"/>
-      <c r="AF13" s="144"/>
-      <c r="AG13" s="145"/>
-      <c r="AH13" s="145"/>
-      <c r="AI13" s="146"/>
+      <c r="B13" s="126"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="101"/>
+      <c r="K13" s="102"/>
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102"/>
+      <c r="O13" s="102"/>
+      <c r="P13" s="103"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="113"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="113"/>
+      <c r="U13" s="113"/>
+      <c r="V13" s="113"/>
+      <c r="W13" s="113"/>
+      <c r="X13" s="113"/>
+      <c r="Y13" s="113"/>
+      <c r="Z13" s="113"/>
+      <c r="AA13" s="113"/>
+      <c r="AB13" s="113"/>
+      <c r="AC13" s="113"/>
+      <c r="AD13" s="113"/>
+      <c r="AE13" s="114"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="102"/>
+      <c r="AH13" s="102"/>
+      <c r="AI13" s="103"/>
       <c r="AJ13" s="30"/>
       <c r="AK13" s="30"/>
       <c r="AL13" s="30"/>
@@ -10679,40 +10738,40 @@
     </row>
     <row r="14" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="61"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="139"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="145"/>
-      <c r="M14" s="145"/>
-      <c r="N14" s="145"/>
-      <c r="O14" s="145"/>
-      <c r="P14" s="146"/>
-      <c r="Q14" s="147"/>
-      <c r="R14" s="148"/>
-      <c r="S14" s="148"/>
-      <c r="T14" s="148"/>
-      <c r="U14" s="148"/>
-      <c r="V14" s="148"/>
-      <c r="W14" s="148"/>
-      <c r="X14" s="148"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="148"/>
-      <c r="AA14" s="148"/>
-      <c r="AB14" s="148"/>
-      <c r="AC14" s="148"/>
-      <c r="AD14" s="148"/>
-      <c r="AE14" s="149"/>
-      <c r="AF14" s="144"/>
-      <c r="AG14" s="145"/>
-      <c r="AH14" s="145"/>
-      <c r="AI14" s="146"/>
+      <c r="B14" s="126"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="127"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
+      <c r="L14" s="102"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="112"/>
+      <c r="R14" s="113"/>
+      <c r="S14" s="113"/>
+      <c r="T14" s="113"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="113"/>
+      <c r="Z14" s="113"/>
+      <c r="AA14" s="113"/>
+      <c r="AB14" s="113"/>
+      <c r="AC14" s="113"/>
+      <c r="AD14" s="113"/>
+      <c r="AE14" s="114"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="102"/>
+      <c r="AH14" s="102"/>
+      <c r="AI14" s="103"/>
       <c r="AJ14" s="30"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="30"/>
@@ -10721,40 +10780,40 @@
     </row>
     <row r="15" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="61"/>
-      <c r="B15" s="138"/>
-      <c r="C15" s="139"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="141"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="144"/>
-      <c r="K15" s="145"/>
-      <c r="L15" s="145"/>
-      <c r="M15" s="145"/>
-      <c r="N15" s="145"/>
-      <c r="O15" s="145"/>
-      <c r="P15" s="146"/>
-      <c r="Q15" s="147"/>
-      <c r="R15" s="148"/>
-      <c r="S15" s="148"/>
-      <c r="T15" s="148"/>
-      <c r="U15" s="148"/>
-      <c r="V15" s="148"/>
-      <c r="W15" s="148"/>
-      <c r="X15" s="148"/>
-      <c r="Y15" s="148"/>
-      <c r="Z15" s="148"/>
-      <c r="AA15" s="148"/>
-      <c r="AB15" s="148"/>
-      <c r="AC15" s="148"/>
-      <c r="AD15" s="148"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="144"/>
-      <c r="AG15" s="145"/>
-      <c r="AH15" s="145"/>
-      <c r="AI15" s="146"/>
+      <c r="B15" s="126"/>
+      <c r="C15" s="128"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="101"/>
+      <c r="K15" s="102"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="103"/>
+      <c r="Q15" s="112"/>
+      <c r="R15" s="113"/>
+      <c r="S15" s="113"/>
+      <c r="T15" s="113"/>
+      <c r="U15" s="113"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="113"/>
+      <c r="X15" s="113"/>
+      <c r="Y15" s="113"/>
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="113"/>
+      <c r="AB15" s="113"/>
+      <c r="AC15" s="113"/>
+      <c r="AD15" s="113"/>
+      <c r="AE15" s="114"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="102"/>
+      <c r="AH15" s="102"/>
+      <c r="AI15" s="103"/>
       <c r="AJ15" s="30"/>
       <c r="AK15" s="30"/>
       <c r="AL15" s="30"/>
@@ -10763,40 +10822,40 @@
     </row>
     <row r="16" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="61"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="139"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="141"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="144"/>
-      <c r="K16" s="145"/>
-      <c r="L16" s="145"/>
-      <c r="M16" s="145"/>
-      <c r="N16" s="145"/>
-      <c r="O16" s="145"/>
-      <c r="P16" s="146"/>
-      <c r="Q16" s="147"/>
-      <c r="R16" s="148"/>
-      <c r="S16" s="148"/>
-      <c r="T16" s="148"/>
-      <c r="U16" s="148"/>
-      <c r="V16" s="148"/>
-      <c r="W16" s="148"/>
-      <c r="X16" s="148"/>
-      <c r="Y16" s="148"/>
-      <c r="Z16" s="148"/>
-      <c r="AA16" s="148"/>
-      <c r="AB16" s="148"/>
-      <c r="AC16" s="148"/>
-      <c r="AD16" s="148"/>
-      <c r="AE16" s="149"/>
-      <c r="AF16" s="144"/>
-      <c r="AG16" s="145"/>
-      <c r="AH16" s="145"/>
-      <c r="AI16" s="146"/>
+      <c r="B16" s="126"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="127"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="101"/>
+      <c r="K16" s="102"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
+      <c r="P16" s="103"/>
+      <c r="Q16" s="112"/>
+      <c r="R16" s="113"/>
+      <c r="S16" s="113"/>
+      <c r="T16" s="113"/>
+      <c r="U16" s="113"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="113"/>
+      <c r="X16" s="113"/>
+      <c r="Y16" s="113"/>
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="113"/>
+      <c r="AB16" s="113"/>
+      <c r="AC16" s="113"/>
+      <c r="AD16" s="113"/>
+      <c r="AE16" s="114"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="102"/>
+      <c r="AH16" s="102"/>
+      <c r="AI16" s="103"/>
       <c r="AJ16" s="30"/>
       <c r="AK16" s="30"/>
       <c r="AL16" s="30"/>
@@ -10805,40 +10864,40 @@
     </row>
     <row r="17" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="61"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="141"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="144"/>
-      <c r="K17" s="145"/>
-      <c r="L17" s="145"/>
-      <c r="M17" s="145"/>
-      <c r="N17" s="145"/>
-      <c r="O17" s="145"/>
-      <c r="P17" s="146"/>
-      <c r="Q17" s="147"/>
-      <c r="R17" s="148"/>
-      <c r="S17" s="148"/>
-      <c r="T17" s="148"/>
-      <c r="U17" s="148"/>
-      <c r="V17" s="148"/>
-      <c r="W17" s="148"/>
-      <c r="X17" s="148"/>
-      <c r="Y17" s="148"/>
-      <c r="Z17" s="148"/>
-      <c r="AA17" s="148"/>
-      <c r="AB17" s="148"/>
-      <c r="AC17" s="148"/>
-      <c r="AD17" s="148"/>
-      <c r="AE17" s="149"/>
-      <c r="AF17" s="144"/>
-      <c r="AG17" s="145"/>
-      <c r="AH17" s="145"/>
-      <c r="AI17" s="146"/>
+      <c r="B17" s="126"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
+      <c r="P17" s="103"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="113"/>
+      <c r="S17" s="113"/>
+      <c r="T17" s="113"/>
+      <c r="U17" s="113"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="113"/>
+      <c r="X17" s="113"/>
+      <c r="Y17" s="113"/>
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="113"/>
+      <c r="AB17" s="113"/>
+      <c r="AC17" s="113"/>
+      <c r="AD17" s="113"/>
+      <c r="AE17" s="114"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="102"/>
+      <c r="AH17" s="102"/>
+      <c r="AI17" s="103"/>
       <c r="AJ17" s="30"/>
       <c r="AK17" s="30"/>
       <c r="AL17" s="30"/>
@@ -10847,40 +10906,40 @@
     </row>
     <row r="18" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="61"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="139"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="144"/>
-      <c r="K18" s="145"/>
-      <c r="L18" s="145"/>
-      <c r="M18" s="145"/>
-      <c r="N18" s="145"/>
-      <c r="O18" s="145"/>
-      <c r="P18" s="146"/>
-      <c r="Q18" s="147"/>
-      <c r="R18" s="148"/>
-      <c r="S18" s="148"/>
-      <c r="T18" s="148"/>
-      <c r="U18" s="148"/>
-      <c r="V18" s="148"/>
-      <c r="W18" s="148"/>
-      <c r="X18" s="148"/>
-      <c r="Y18" s="148"/>
-      <c r="Z18" s="148"/>
-      <c r="AA18" s="148"/>
-      <c r="AB18" s="148"/>
-      <c r="AC18" s="148"/>
-      <c r="AD18" s="148"/>
-      <c r="AE18" s="149"/>
-      <c r="AF18" s="144"/>
-      <c r="AG18" s="145"/>
-      <c r="AH18" s="145"/>
-      <c r="AI18" s="146"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="128"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="101"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="102"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="112"/>
+      <c r="R18" s="113"/>
+      <c r="S18" s="113"/>
+      <c r="T18" s="113"/>
+      <c r="U18" s="113"/>
+      <c r="V18" s="113"/>
+      <c r="W18" s="113"/>
+      <c r="X18" s="113"/>
+      <c r="Y18" s="113"/>
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="113"/>
+      <c r="AB18" s="113"/>
+      <c r="AC18" s="113"/>
+      <c r="AD18" s="113"/>
+      <c r="AE18" s="114"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="102"/>
+      <c r="AH18" s="102"/>
+      <c r="AI18" s="103"/>
       <c r="AJ18" s="30"/>
       <c r="AK18" s="30"/>
       <c r="AL18" s="30"/>
@@ -10889,40 +10948,40 @@
     </row>
     <row r="19" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="61"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="139"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="144"/>
-      <c r="K19" s="145"/>
-      <c r="L19" s="145"/>
-      <c r="M19" s="145"/>
-      <c r="N19" s="145"/>
-      <c r="O19" s="145"/>
-      <c r="P19" s="146"/>
-      <c r="Q19" s="147"/>
-      <c r="R19" s="148"/>
-      <c r="S19" s="148"/>
-      <c r="T19" s="148"/>
-      <c r="U19" s="148"/>
-      <c r="V19" s="148"/>
-      <c r="W19" s="148"/>
-      <c r="X19" s="148"/>
-      <c r="Y19" s="148"/>
-      <c r="Z19" s="148"/>
-      <c r="AA19" s="148"/>
-      <c r="AB19" s="148"/>
-      <c r="AC19" s="148"/>
-      <c r="AD19" s="148"/>
-      <c r="AE19" s="149"/>
-      <c r="AF19" s="144"/>
-      <c r="AG19" s="145"/>
-      <c r="AH19" s="145"/>
-      <c r="AI19" s="146"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="127"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="101"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="112"/>
+      <c r="R19" s="113"/>
+      <c r="S19" s="113"/>
+      <c r="T19" s="113"/>
+      <c r="U19" s="113"/>
+      <c r="V19" s="113"/>
+      <c r="W19" s="113"/>
+      <c r="X19" s="113"/>
+      <c r="Y19" s="113"/>
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="113"/>
+      <c r="AB19" s="113"/>
+      <c r="AC19" s="113"/>
+      <c r="AD19" s="113"/>
+      <c r="AE19" s="114"/>
+      <c r="AF19" s="101"/>
+      <c r="AG19" s="102"/>
+      <c r="AH19" s="102"/>
+      <c r="AI19" s="103"/>
       <c r="AJ19" s="30"/>
       <c r="AK19" s="30"/>
       <c r="AL19" s="30"/>
@@ -10931,40 +10990,40 @@
     </row>
     <row r="20" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="61"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="144"/>
-      <c r="K20" s="145"/>
-      <c r="L20" s="145"/>
-      <c r="M20" s="145"/>
-      <c r="N20" s="145"/>
-      <c r="O20" s="145"/>
-      <c r="P20" s="146"/>
-      <c r="Q20" s="147"/>
-      <c r="R20" s="148"/>
-      <c r="S20" s="148"/>
-      <c r="T20" s="148"/>
-      <c r="U20" s="148"/>
-      <c r="V20" s="148"/>
-      <c r="W20" s="148"/>
-      <c r="X20" s="148"/>
-      <c r="Y20" s="148"/>
-      <c r="Z20" s="148"/>
-      <c r="AA20" s="148"/>
-      <c r="AB20" s="148"/>
-      <c r="AC20" s="148"/>
-      <c r="AD20" s="148"/>
-      <c r="AE20" s="149"/>
-      <c r="AF20" s="144"/>
-      <c r="AG20" s="145"/>
-      <c r="AH20" s="145"/>
-      <c r="AI20" s="146"/>
+      <c r="B20" s="126"/>
+      <c r="C20" s="128"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="101"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="113"/>
+      <c r="S20" s="113"/>
+      <c r="T20" s="113"/>
+      <c r="U20" s="113"/>
+      <c r="V20" s="113"/>
+      <c r="W20" s="113"/>
+      <c r="X20" s="113"/>
+      <c r="Y20" s="113"/>
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="113"/>
+      <c r="AB20" s="113"/>
+      <c r="AC20" s="113"/>
+      <c r="AD20" s="113"/>
+      <c r="AE20" s="114"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="102"/>
+      <c r="AH20" s="102"/>
+      <c r="AI20" s="103"/>
       <c r="AJ20" s="30"/>
       <c r="AK20" s="30"/>
       <c r="AL20" s="30"/>
@@ -10973,40 +11032,40 @@
     </row>
     <row r="21" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="61"/>
-      <c r="B21" s="138"/>
-      <c r="C21" s="139"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="144"/>
-      <c r="K21" s="145"/>
-      <c r="L21" s="145"/>
-      <c r="M21" s="145"/>
-      <c r="N21" s="145"/>
-      <c r="O21" s="145"/>
-      <c r="P21" s="146"/>
-      <c r="Q21" s="147"/>
-      <c r="R21" s="148"/>
-      <c r="S21" s="148"/>
-      <c r="T21" s="148"/>
-      <c r="U21" s="148"/>
-      <c r="V21" s="148"/>
-      <c r="W21" s="148"/>
-      <c r="X21" s="148"/>
-      <c r="Y21" s="148"/>
-      <c r="Z21" s="148"/>
-      <c r="AA21" s="148"/>
-      <c r="AB21" s="148"/>
-      <c r="AC21" s="148"/>
-      <c r="AD21" s="148"/>
-      <c r="AE21" s="149"/>
-      <c r="AF21" s="144"/>
-      <c r="AG21" s="145"/>
-      <c r="AH21" s="145"/>
-      <c r="AI21" s="146"/>
+      <c r="B21" s="126"/>
+      <c r="C21" s="128"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="112"/>
+      <c r="R21" s="113"/>
+      <c r="S21" s="113"/>
+      <c r="T21" s="113"/>
+      <c r="U21" s="113"/>
+      <c r="V21" s="113"/>
+      <c r="W21" s="113"/>
+      <c r="X21" s="113"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="113"/>
+      <c r="AB21" s="113"/>
+      <c r="AC21" s="113"/>
+      <c r="AD21" s="113"/>
+      <c r="AE21" s="114"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="102"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="103"/>
       <c r="AJ21" s="30"/>
       <c r="AK21" s="30"/>
       <c r="AL21" s="30"/>
@@ -11015,40 +11074,40 @@
     </row>
     <row r="22" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="61"/>
-      <c r="B22" s="138"/>
-      <c r="C22" s="139"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="141"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="144"/>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="145"/>
-      <c r="N22" s="145"/>
-      <c r="O22" s="145"/>
-      <c r="P22" s="146"/>
-      <c r="Q22" s="147"/>
-      <c r="R22" s="148"/>
-      <c r="S22" s="148"/>
-      <c r="T22" s="148"/>
-      <c r="U22" s="148"/>
-      <c r="V22" s="148"/>
-      <c r="W22" s="148"/>
-      <c r="X22" s="148"/>
-      <c r="Y22" s="148"/>
-      <c r="Z22" s="148"/>
-      <c r="AA22" s="148"/>
-      <c r="AB22" s="148"/>
-      <c r="AC22" s="148"/>
-      <c r="AD22" s="148"/>
-      <c r="AE22" s="149"/>
-      <c r="AF22" s="144"/>
-      <c r="AG22" s="145"/>
-      <c r="AH22" s="145"/>
-      <c r="AI22" s="146"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="128"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="112"/>
+      <c r="R22" s="113"/>
+      <c r="S22" s="113"/>
+      <c r="T22" s="113"/>
+      <c r="U22" s="113"/>
+      <c r="V22" s="113"/>
+      <c r="W22" s="113"/>
+      <c r="X22" s="113"/>
+      <c r="Y22" s="113"/>
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="113"/>
+      <c r="AB22" s="113"/>
+      <c r="AC22" s="113"/>
+      <c r="AD22" s="113"/>
+      <c r="AE22" s="114"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="102"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="103"/>
       <c r="AJ22" s="30"/>
       <c r="AK22" s="30"/>
       <c r="AL22" s="30"/>
@@ -11057,40 +11116,40 @@
     </row>
     <row r="23" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="61"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="144"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="145"/>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145"/>
-      <c r="O23" s="145"/>
-      <c r="P23" s="146"/>
-      <c r="Q23" s="147"/>
-      <c r="R23" s="148"/>
-      <c r="S23" s="148"/>
-      <c r="T23" s="148"/>
-      <c r="U23" s="148"/>
-      <c r="V23" s="148"/>
-      <c r="W23" s="148"/>
-      <c r="X23" s="148"/>
-      <c r="Y23" s="148"/>
-      <c r="Z23" s="148"/>
-      <c r="AA23" s="148"/>
-      <c r="AB23" s="148"/>
-      <c r="AC23" s="148"/>
-      <c r="AD23" s="148"/>
-      <c r="AE23" s="149"/>
-      <c r="AF23" s="144"/>
-      <c r="AG23" s="145"/>
-      <c r="AH23" s="145"/>
-      <c r="AI23" s="146"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="101"/>
+      <c r="K23" s="102"/>
+      <c r="L23" s="102"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="112"/>
+      <c r="R23" s="113"/>
+      <c r="S23" s="113"/>
+      <c r="T23" s="113"/>
+      <c r="U23" s="113"/>
+      <c r="V23" s="113"/>
+      <c r="W23" s="113"/>
+      <c r="X23" s="113"/>
+      <c r="Y23" s="113"/>
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="113"/>
+      <c r="AB23" s="113"/>
+      <c r="AC23" s="113"/>
+      <c r="AD23" s="113"/>
+      <c r="AE23" s="114"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="102"/>
+      <c r="AH23" s="102"/>
+      <c r="AI23" s="103"/>
       <c r="AJ23" s="30"/>
       <c r="AK23" s="30"/>
       <c r="AL23" s="30"/>
@@ -11099,40 +11158,40 @@
     </row>
     <row r="24" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="61"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="139"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="141"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="144"/>
-      <c r="K24" s="145"/>
-      <c r="L24" s="145"/>
-      <c r="M24" s="145"/>
-      <c r="N24" s="145"/>
-      <c r="O24" s="145"/>
-      <c r="P24" s="146"/>
-      <c r="Q24" s="147"/>
-      <c r="R24" s="148"/>
-      <c r="S24" s="148"/>
-      <c r="T24" s="148"/>
-      <c r="U24" s="148"/>
-      <c r="V24" s="148"/>
-      <c r="W24" s="148"/>
-      <c r="X24" s="148"/>
-      <c r="Y24" s="148"/>
-      <c r="Z24" s="148"/>
-      <c r="AA24" s="148"/>
-      <c r="AB24" s="148"/>
-      <c r="AC24" s="148"/>
-      <c r="AD24" s="148"/>
-      <c r="AE24" s="149"/>
-      <c r="AF24" s="144"/>
-      <c r="AG24" s="145"/>
-      <c r="AH24" s="145"/>
-      <c r="AI24" s="146"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="101"/>
+      <c r="K24" s="102"/>
+      <c r="L24" s="102"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="113"/>
+      <c r="S24" s="113"/>
+      <c r="T24" s="113"/>
+      <c r="U24" s="113"/>
+      <c r="V24" s="113"/>
+      <c r="W24" s="113"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="113"/>
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="113"/>
+      <c r="AB24" s="113"/>
+      <c r="AC24" s="113"/>
+      <c r="AD24" s="113"/>
+      <c r="AE24" s="114"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="102"/>
+      <c r="AH24" s="102"/>
+      <c r="AI24" s="103"/>
       <c r="AJ24" s="30"/>
       <c r="AK24" s="30"/>
       <c r="AL24" s="30"/>
@@ -11141,40 +11200,40 @@
     </row>
     <row r="25" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="61"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="144"/>
-      <c r="K25" s="145"/>
-      <c r="L25" s="145"/>
-      <c r="M25" s="145"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="145"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="147"/>
-      <c r="R25" s="148"/>
-      <c r="S25" s="148"/>
-      <c r="T25" s="148"/>
-      <c r="U25" s="148"/>
-      <c r="V25" s="148"/>
-      <c r="W25" s="148"/>
-      <c r="X25" s="148"/>
-      <c r="Y25" s="148"/>
-      <c r="Z25" s="148"/>
-      <c r="AA25" s="148"/>
-      <c r="AB25" s="148"/>
-      <c r="AC25" s="148"/>
-      <c r="AD25" s="148"/>
-      <c r="AE25" s="149"/>
-      <c r="AF25" s="144"/>
-      <c r="AG25" s="145"/>
-      <c r="AH25" s="145"/>
-      <c r="AI25" s="146"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="127"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="101"/>
+      <c r="K25" s="102"/>
+      <c r="L25" s="102"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="112"/>
+      <c r="R25" s="113"/>
+      <c r="S25" s="113"/>
+      <c r="T25" s="113"/>
+      <c r="U25" s="113"/>
+      <c r="V25" s="113"/>
+      <c r="W25" s="113"/>
+      <c r="X25" s="113"/>
+      <c r="Y25" s="113"/>
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="113"/>
+      <c r="AB25" s="113"/>
+      <c r="AC25" s="113"/>
+      <c r="AD25" s="113"/>
+      <c r="AE25" s="114"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="102"/>
+      <c r="AH25" s="102"/>
+      <c r="AI25" s="103"/>
       <c r="AJ25" s="30"/>
       <c r="AK25" s="30"/>
       <c r="AL25" s="30"/>
@@ -11183,40 +11242,40 @@
     </row>
     <row r="26" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="61"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="139"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="141"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="144"/>
-      <c r="K26" s="145"/>
-      <c r="L26" s="145"/>
-      <c r="M26" s="145"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="145"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="148"/>
-      <c r="S26" s="148"/>
-      <c r="T26" s="148"/>
-      <c r="U26" s="148"/>
-      <c r="V26" s="148"/>
-      <c r="W26" s="148"/>
-      <c r="X26" s="148"/>
-      <c r="Y26" s="148"/>
-      <c r="Z26" s="148"/>
-      <c r="AA26" s="148"/>
-      <c r="AB26" s="148"/>
-      <c r="AC26" s="148"/>
-      <c r="AD26" s="148"/>
-      <c r="AE26" s="149"/>
-      <c r="AF26" s="144"/>
-      <c r="AG26" s="145"/>
-      <c r="AH26" s="145"/>
-      <c r="AI26" s="146"/>
+      <c r="B26" s="126"/>
+      <c r="C26" s="128"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="127"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="113"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
+      <c r="V26" s="113"/>
+      <c r="W26" s="113"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="113"/>
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="113"/>
+      <c r="AB26" s="113"/>
+      <c r="AC26" s="113"/>
+      <c r="AD26" s="113"/>
+      <c r="AE26" s="114"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="102"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="103"/>
       <c r="AJ26" s="30"/>
       <c r="AK26" s="30"/>
       <c r="AL26" s="30"/>
@@ -11225,40 +11284,40 @@
     </row>
     <row r="27" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="61"/>
-      <c r="B27" s="138"/>
-      <c r="C27" s="139"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="141"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="144"/>
-      <c r="K27" s="145"/>
-      <c r="L27" s="145"/>
-      <c r="M27" s="145"/>
-      <c r="N27" s="145"/>
-      <c r="O27" s="145"/>
-      <c r="P27" s="146"/>
-      <c r="Q27" s="147"/>
-      <c r="R27" s="148"/>
-      <c r="S27" s="148"/>
-      <c r="T27" s="148"/>
-      <c r="U27" s="148"/>
-      <c r="V27" s="148"/>
-      <c r="W27" s="148"/>
-      <c r="X27" s="148"/>
-      <c r="Y27" s="148"/>
-      <c r="Z27" s="148"/>
-      <c r="AA27" s="148"/>
-      <c r="AB27" s="148"/>
-      <c r="AC27" s="148"/>
-      <c r="AD27" s="148"/>
-      <c r="AE27" s="149"/>
-      <c r="AF27" s="144"/>
-      <c r="AG27" s="145"/>
-      <c r="AH27" s="145"/>
-      <c r="AI27" s="146"/>
+      <c r="B27" s="126"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="127"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="101"/>
+      <c r="K27" s="102"/>
+      <c r="L27" s="102"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="112"/>
+      <c r="R27" s="113"/>
+      <c r="S27" s="113"/>
+      <c r="T27" s="113"/>
+      <c r="U27" s="113"/>
+      <c r="V27" s="113"/>
+      <c r="W27" s="113"/>
+      <c r="X27" s="113"/>
+      <c r="Y27" s="113"/>
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="113"/>
+      <c r="AB27" s="113"/>
+      <c r="AC27" s="113"/>
+      <c r="AD27" s="113"/>
+      <c r="AE27" s="114"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="102"/>
+      <c r="AH27" s="102"/>
+      <c r="AI27" s="103"/>
       <c r="AJ27" s="30"/>
       <c r="AK27" s="30"/>
       <c r="AL27" s="30"/>
@@ -11267,40 +11326,40 @@
     </row>
     <row r="28" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="61"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="139"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="144"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="145"/>
-      <c r="P28" s="146"/>
-      <c r="Q28" s="147"/>
-      <c r="R28" s="148"/>
-      <c r="S28" s="148"/>
-      <c r="T28" s="148"/>
-      <c r="U28" s="148"/>
-      <c r="V28" s="148"/>
-      <c r="W28" s="148"/>
-      <c r="X28" s="148"/>
-      <c r="Y28" s="148"/>
-      <c r="Z28" s="148"/>
-      <c r="AA28" s="148"/>
-      <c r="AB28" s="148"/>
-      <c r="AC28" s="148"/>
-      <c r="AD28" s="148"/>
-      <c r="AE28" s="149"/>
-      <c r="AF28" s="144"/>
-      <c r="AG28" s="145"/>
-      <c r="AH28" s="145"/>
-      <c r="AI28" s="146"/>
+      <c r="B28" s="126"/>
+      <c r="C28" s="128"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="127"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="101"/>
+      <c r="K28" s="102"/>
+      <c r="L28" s="102"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="112"/>
+      <c r="R28" s="113"/>
+      <c r="S28" s="113"/>
+      <c r="T28" s="113"/>
+      <c r="U28" s="113"/>
+      <c r="V28" s="113"/>
+      <c r="W28" s="113"/>
+      <c r="X28" s="113"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="113"/>
+      <c r="AB28" s="113"/>
+      <c r="AC28" s="113"/>
+      <c r="AD28" s="113"/>
+      <c r="AE28" s="114"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="102"/>
+      <c r="AH28" s="102"/>
+      <c r="AI28" s="103"/>
       <c r="AJ28" s="30"/>
       <c r="AK28" s="30"/>
       <c r="AL28" s="30"/>
@@ -11309,40 +11368,40 @@
     </row>
     <row r="29" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="61"/>
-      <c r="B29" s="138"/>
-      <c r="C29" s="139"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="141"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="145"/>
-      <c r="L29" s="145"/>
-      <c r="M29" s="145"/>
-      <c r="N29" s="145"/>
-      <c r="O29" s="145"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="147"/>
-      <c r="R29" s="148"/>
-      <c r="S29" s="148"/>
-      <c r="T29" s="148"/>
-      <c r="U29" s="148"/>
-      <c r="V29" s="148"/>
-      <c r="W29" s="148"/>
-      <c r="X29" s="148"/>
-      <c r="Y29" s="148"/>
-      <c r="Z29" s="148"/>
-      <c r="AA29" s="148"/>
-      <c r="AB29" s="148"/>
-      <c r="AC29" s="148"/>
-      <c r="AD29" s="148"/>
-      <c r="AE29" s="149"/>
-      <c r="AF29" s="144"/>
-      <c r="AG29" s="145"/>
-      <c r="AH29" s="145"/>
-      <c r="AI29" s="146"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="128"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="101"/>
+      <c r="K29" s="102"/>
+      <c r="L29" s="102"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="113"/>
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="113"/>
+      <c r="AB29" s="113"/>
+      <c r="AC29" s="113"/>
+      <c r="AD29" s="113"/>
+      <c r="AE29" s="114"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="102"/>
+      <c r="AH29" s="102"/>
+      <c r="AI29" s="103"/>
       <c r="AJ29" s="30"/>
       <c r="AK29" s="30"/>
       <c r="AL29" s="30"/>
@@ -11351,40 +11410,40 @@
     </row>
     <row r="30" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="61"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="141"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="145"/>
-      <c r="L30" s="145"/>
-      <c r="M30" s="145"/>
-      <c r="N30" s="145"/>
-      <c r="O30" s="145"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="147"/>
-      <c r="R30" s="148"/>
-      <c r="S30" s="148"/>
-      <c r="T30" s="148"/>
-      <c r="U30" s="148"/>
-      <c r="V30" s="148"/>
-      <c r="W30" s="148"/>
-      <c r="X30" s="148"/>
-      <c r="Y30" s="148"/>
-      <c r="Z30" s="148"/>
-      <c r="AA30" s="148"/>
-      <c r="AB30" s="148"/>
-      <c r="AC30" s="148"/>
-      <c r="AD30" s="148"/>
-      <c r="AE30" s="149"/>
-      <c r="AF30" s="144"/>
-      <c r="AG30" s="145"/>
-      <c r="AH30" s="145"/>
-      <c r="AI30" s="146"/>
+      <c r="B30" s="126"/>
+      <c r="C30" s="128"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="127"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="101"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="102"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="112"/>
+      <c r="R30" s="113"/>
+      <c r="S30" s="113"/>
+      <c r="T30" s="113"/>
+      <c r="U30" s="113"/>
+      <c r="V30" s="113"/>
+      <c r="W30" s="113"/>
+      <c r="X30" s="113"/>
+      <c r="Y30" s="113"/>
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="113"/>
+      <c r="AB30" s="113"/>
+      <c r="AC30" s="113"/>
+      <c r="AD30" s="113"/>
+      <c r="AE30" s="114"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="102"/>
+      <c r="AH30" s="102"/>
+      <c r="AI30" s="103"/>
       <c r="AJ30" s="30"/>
       <c r="AK30" s="30"/>
       <c r="AL30" s="30"/>
@@ -11393,40 +11452,40 @@
     </row>
     <row r="31" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="61"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="141"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="145"/>
-      <c r="L31" s="145"/>
-      <c r="M31" s="145"/>
-      <c r="N31" s="145"/>
-      <c r="O31" s="145"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="147"/>
-      <c r="R31" s="148"/>
-      <c r="S31" s="148"/>
-      <c r="T31" s="148"/>
-      <c r="U31" s="148"/>
-      <c r="V31" s="148"/>
-      <c r="W31" s="148"/>
-      <c r="X31" s="148"/>
-      <c r="Y31" s="148"/>
-      <c r="Z31" s="148"/>
-      <c r="AA31" s="148"/>
-      <c r="AB31" s="148"/>
-      <c r="AC31" s="148"/>
-      <c r="AD31" s="148"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="144"/>
-      <c r="AG31" s="145"/>
-      <c r="AH31" s="145"/>
-      <c r="AI31" s="146"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="128"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="102"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="113"/>
+      <c r="S31" s="113"/>
+      <c r="T31" s="113"/>
+      <c r="U31" s="113"/>
+      <c r="V31" s="113"/>
+      <c r="W31" s="113"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="113"/>
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="113"/>
+      <c r="AB31" s="113"/>
+      <c r="AC31" s="113"/>
+      <c r="AD31" s="113"/>
+      <c r="AE31" s="114"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="102"/>
+      <c r="AH31" s="102"/>
+      <c r="AI31" s="103"/>
       <c r="AJ31" s="30"/>
       <c r="AK31" s="30"/>
       <c r="AL31" s="30"/>
@@ -11435,40 +11494,40 @@
     </row>
     <row r="32" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="61"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="141"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="145"/>
-      <c r="L32" s="145"/>
-      <c r="M32" s="145"/>
-      <c r="N32" s="145"/>
-      <c r="O32" s="145"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="147"/>
-      <c r="R32" s="148"/>
-      <c r="S32" s="148"/>
-      <c r="T32" s="148"/>
-      <c r="U32" s="148"/>
-      <c r="V32" s="148"/>
-      <c r="W32" s="148"/>
-      <c r="X32" s="148"/>
-      <c r="Y32" s="148"/>
-      <c r="Z32" s="148"/>
-      <c r="AA32" s="148"/>
-      <c r="AB32" s="148"/>
-      <c r="AC32" s="148"/>
-      <c r="AD32" s="148"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="144"/>
-      <c r="AG32" s="145"/>
-      <c r="AH32" s="145"/>
-      <c r="AI32" s="146"/>
+      <c r="B32" s="126"/>
+      <c r="C32" s="128"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="127"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="102"/>
+      <c r="L32" s="102"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="112"/>
+      <c r="R32" s="113"/>
+      <c r="S32" s="113"/>
+      <c r="T32" s="113"/>
+      <c r="U32" s="113"/>
+      <c r="V32" s="113"/>
+      <c r="W32" s="113"/>
+      <c r="X32" s="113"/>
+      <c r="Y32" s="113"/>
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="113"/>
+      <c r="AB32" s="113"/>
+      <c r="AC32" s="113"/>
+      <c r="AD32" s="113"/>
+      <c r="AE32" s="114"/>
+      <c r="AF32" s="101"/>
+      <c r="AG32" s="102"/>
+      <c r="AH32" s="102"/>
+      <c r="AI32" s="103"/>
       <c r="AJ32" s="30"/>
       <c r="AK32" s="30"/>
       <c r="AL32" s="30"/>
@@ -11477,40 +11536,40 @@
     </row>
     <row r="33" spans="1:40" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="61"/>
-      <c r="B33" s="138"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="141"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="145"/>
-      <c r="L33" s="145"/>
-      <c r="M33" s="145"/>
-      <c r="N33" s="145"/>
-      <c r="O33" s="145"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="147"/>
-      <c r="R33" s="148"/>
-      <c r="S33" s="148"/>
-      <c r="T33" s="148"/>
-      <c r="U33" s="148"/>
-      <c r="V33" s="148"/>
-      <c r="W33" s="148"/>
-      <c r="X33" s="148"/>
-      <c r="Y33" s="148"/>
-      <c r="Z33" s="148"/>
-      <c r="AA33" s="148"/>
-      <c r="AB33" s="148"/>
-      <c r="AC33" s="148"/>
-      <c r="AD33" s="148"/>
-      <c r="AE33" s="149"/>
-      <c r="AF33" s="144"/>
-      <c r="AG33" s="145"/>
-      <c r="AH33" s="145"/>
-      <c r="AI33" s="146"/>
+      <c r="B33" s="126"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="127"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="102"/>
+      <c r="L33" s="102"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="112"/>
+      <c r="R33" s="113"/>
+      <c r="S33" s="113"/>
+      <c r="T33" s="113"/>
+      <c r="U33" s="113"/>
+      <c r="V33" s="113"/>
+      <c r="W33" s="113"/>
+      <c r="X33" s="113"/>
+      <c r="Y33" s="113"/>
+      <c r="Z33" s="113"/>
+      <c r="AA33" s="113"/>
+      <c r="AB33" s="113"/>
+      <c r="AC33" s="113"/>
+      <c r="AD33" s="113"/>
+      <c r="AE33" s="114"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="102"/>
+      <c r="AH33" s="102"/>
+      <c r="AI33" s="103"/>
       <c r="AJ33" s="30"/>
       <c r="AK33" s="30"/>
       <c r="AL33" s="30"/>
@@ -11603,6 +11662,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11627,161 +11841,6 @@
     <mergeCell ref="Q13:AE13"/>
     <mergeCell ref="AF19:AI19"/>
     <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
   </mergeCells>
   <phoneticPr fontId="32"/>
   <printOptions horizontalCentered="1"/>
@@ -11936,157 +11995,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="112" t="str">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="165" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="166"/>
-      <c r="Q1" s="166"/>
-      <c r="R1" s="167"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="183"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="162" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="164"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="170"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="112" t="str">
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="168"/>
-      <c r="P2" s="169"/>
-      <c r="Q2" s="169"/>
-      <c r="R2" s="170"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="162" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="185"/>
+      <c r="Q2" s="185"/>
+      <c r="R2" s="186"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="170"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+        <v>44903</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="112" t="str">
+      <c r="B3" s="180"/>
+      <c r="C3" s="180"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="173"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="162"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="187"/>
+      <c r="P3" s="188"/>
+      <c r="Q3" s="188"/>
+      <c r="R3" s="189"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="169"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
     </row>
     <row r="4" spans="1:35" s="39" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="22"/>
@@ -13201,12 +13260,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -13218,6 +13271,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -13246,157 +13305,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="112" t="str">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
         <v>109</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="100" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="112" t="str">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="100" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+        <v>44903</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="112" t="str">
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B5"/>
@@ -13427,146 +13486,146 @@
       </c>
     </row>
     <row r="17" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188" t="s">
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="188"/>
-      <c r="M17" s="188"/>
-      <c r="N17" s="188"/>
-      <c r="O17" s="188"/>
-      <c r="P17" s="188"/>
-      <c r="Q17" s="188"/>
-      <c r="R17" s="188"/>
-      <c r="S17" s="188"/>
-      <c r="T17" s="188"/>
-      <c r="U17" s="188"/>
-      <c r="V17" s="188"/>
-      <c r="W17" s="188"/>
-      <c r="X17" s="188"/>
-      <c r="Y17" s="188"/>
-      <c r="Z17" s="188"/>
-      <c r="AA17" s="188"/>
-      <c r="AB17" s="188"/>
-      <c r="AC17" s="188"/>
-      <c r="AD17" s="188"/>
-      <c r="AE17" s="188"/>
-      <c r="AF17" s="188"/>
-      <c r="AG17" s="188"/>
+      <c r="L17" s="192"/>
+      <c r="M17" s="192"/>
+      <c r="N17" s="192"/>
+      <c r="O17" s="192"/>
+      <c r="P17" s="192"/>
+      <c r="Q17" s="192"/>
+      <c r="R17" s="192"/>
+      <c r="S17" s="192"/>
+      <c r="T17" s="192"/>
+      <c r="U17" s="192"/>
+      <c r="V17" s="192"/>
+      <c r="W17" s="192"/>
+      <c r="X17" s="192"/>
+      <c r="Y17" s="192"/>
+      <c r="Z17" s="192"/>
+      <c r="AA17" s="192"/>
+      <c r="AB17" s="192"/>
+      <c r="AC17" s="192"/>
+      <c r="AD17" s="192"/>
+      <c r="AE17" s="192"/>
+      <c r="AF17" s="192"/>
+      <c r="AG17" s="192"/>
     </row>
     <row r="18" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D18" s="189" t="s">
+      <c r="D18" s="190" t="s">
         <v>113</v>
       </c>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
-      <c r="J18" s="189"/>
-      <c r="K18" s="189" t="s">
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="L18" s="189"/>
-      <c r="M18" s="189"/>
-      <c r="N18" s="189"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="189"/>
-      <c r="Q18" s="189"/>
-      <c r="R18" s="189"/>
-      <c r="S18" s="189"/>
-      <c r="T18" s="189"/>
-      <c r="U18" s="189"/>
-      <c r="V18" s="189"/>
-      <c r="W18" s="189"/>
-      <c r="X18" s="189"/>
-      <c r="Y18" s="189"/>
-      <c r="Z18" s="189"/>
-      <c r="AA18" s="189"/>
-      <c r="AB18" s="189"/>
-      <c r="AC18" s="189"/>
-      <c r="AD18" s="189"/>
-      <c r="AE18" s="189"/>
-      <c r="AF18" s="189"/>
-      <c r="AG18" s="189"/>
+      <c r="L18" s="190"/>
+      <c r="M18" s="190"/>
+      <c r="N18" s="190"/>
+      <c r="O18" s="190"/>
+      <c r="P18" s="190"/>
+      <c r="Q18" s="190"/>
+      <c r="R18" s="190"/>
+      <c r="S18" s="190"/>
+      <c r="T18" s="190"/>
+      <c r="U18" s="190"/>
+      <c r="V18" s="190"/>
+      <c r="W18" s="190"/>
+      <c r="X18" s="190"/>
+      <c r="Y18" s="190"/>
+      <c r="Z18" s="190"/>
+      <c r="AA18" s="190"/>
+      <c r="AB18" s="190"/>
+      <c r="AC18" s="190"/>
+      <c r="AD18" s="190"/>
+      <c r="AE18" s="190"/>
+      <c r="AF18" s="190"/>
+      <c r="AG18" s="190"/>
     </row>
     <row r="19" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D19" s="186" t="s">
+      <c r="D19" s="193" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
-      <c r="K19" s="187" t="s">
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="L19" s="186"/>
-      <c r="M19" s="186"/>
-      <c r="N19" s="186"/>
-      <c r="O19" s="186"/>
-      <c r="P19" s="186"/>
-      <c r="Q19" s="186"/>
-      <c r="R19" s="186"/>
-      <c r="S19" s="186"/>
-      <c r="T19" s="186"/>
-      <c r="U19" s="186"/>
-      <c r="V19" s="186"/>
-      <c r="W19" s="186"/>
-      <c r="X19" s="186"/>
-      <c r="Y19" s="186"/>
-      <c r="Z19" s="186"/>
-      <c r="AA19" s="186"/>
-      <c r="AB19" s="186"/>
-      <c r="AC19" s="186"/>
-      <c r="AD19" s="186"/>
-      <c r="AE19" s="186"/>
-      <c r="AF19" s="186"/>
-      <c r="AG19" s="186"/>
+      <c r="L19" s="193"/>
+      <c r="M19" s="193"/>
+      <c r="N19" s="193"/>
+      <c r="O19" s="193"/>
+      <c r="P19" s="193"/>
+      <c r="Q19" s="193"/>
+      <c r="R19" s="193"/>
+      <c r="S19" s="193"/>
+      <c r="T19" s="193"/>
+      <c r="U19" s="193"/>
+      <c r="V19" s="193"/>
+      <c r="W19" s="193"/>
+      <c r="X19" s="193"/>
+      <c r="Y19" s="193"/>
+      <c r="Z19" s="193"/>
+      <c r="AA19" s="193"/>
+      <c r="AB19" s="193"/>
+      <c r="AC19" s="193"/>
+      <c r="AD19" s="193"/>
+      <c r="AE19" s="193"/>
+      <c r="AF19" s="193"/>
+      <c r="AG19" s="193"/>
     </row>
     <row r="20" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D20" s="190"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="191" t="s">
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
+      <c r="G20" s="191"/>
+      <c r="H20" s="191"/>
+      <c r="I20" s="191"/>
+      <c r="J20" s="191"/>
+      <c r="K20" s="194" t="s">
         <v>80</v>
       </c>
-      <c r="L20" s="190"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="190"/>
-      <c r="Q20" s="190"/>
-      <c r="R20" s="190"/>
-      <c r="S20" s="190"/>
-      <c r="T20" s="190"/>
-      <c r="U20" s="190"/>
-      <c r="V20" s="190"/>
-      <c r="W20" s="190"/>
-      <c r="X20" s="190"/>
-      <c r="Y20" s="190"/>
-      <c r="Z20" s="190"/>
-      <c r="AA20" s="190"/>
-      <c r="AB20" s="190"/>
-      <c r="AC20" s="190"/>
-      <c r="AD20" s="190"/>
-      <c r="AE20" s="190"/>
-      <c r="AF20" s="190"/>
-      <c r="AG20" s="190"/>
+      <c r="L20" s="191"/>
+      <c r="M20" s="191"/>
+      <c r="N20" s="191"/>
+      <c r="O20" s="191"/>
+      <c r="P20" s="191"/>
+      <c r="Q20" s="191"/>
+      <c r="R20" s="191"/>
+      <c r="S20" s="191"/>
+      <c r="T20" s="191"/>
+      <c r="U20" s="191"/>
+      <c r="V20" s="191"/>
+      <c r="W20" s="191"/>
+      <c r="X20" s="191"/>
+      <c r="Y20" s="191"/>
+      <c r="Z20" s="191"/>
+      <c r="AA20" s="191"/>
+      <c r="AB20" s="191"/>
+      <c r="AC20" s="191"/>
+      <c r="AD20" s="191"/>
+      <c r="AE20" s="191"/>
+      <c r="AF20" s="191"/>
+      <c r="AG20" s="191"/>
     </row>
     <row r="22" spans="3:33" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
@@ -13574,148 +13633,148 @@
       </c>
     </row>
     <row r="24" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188" t="s">
+      <c r="E24" s="192"/>
+      <c r="F24" s="192"/>
+      <c r="G24" s="192"/>
+      <c r="H24" s="192"/>
+      <c r="I24" s="192"/>
+      <c r="J24" s="192"/>
+      <c r="K24" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="188"/>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="188"/>
-      <c r="Q24" s="188"/>
-      <c r="R24" s="188"/>
-      <c r="S24" s="188"/>
-      <c r="T24" s="188"/>
-      <c r="U24" s="188"/>
-      <c r="V24" s="188"/>
-      <c r="W24" s="188"/>
-      <c r="X24" s="188"/>
-      <c r="Y24" s="188"/>
-      <c r="Z24" s="188"/>
-      <c r="AA24" s="188"/>
-      <c r="AB24" s="188"/>
-      <c r="AC24" s="188"/>
-      <c r="AD24" s="188"/>
-      <c r="AE24" s="188"/>
-      <c r="AF24" s="188"/>
-      <c r="AG24" s="188"/>
+      <c r="L24" s="192"/>
+      <c r="M24" s="192"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="192"/>
+      <c r="P24" s="192"/>
+      <c r="Q24" s="192"/>
+      <c r="R24" s="192"/>
+      <c r="S24" s="192"/>
+      <c r="T24" s="192"/>
+      <c r="U24" s="192"/>
+      <c r="V24" s="192"/>
+      <c r="W24" s="192"/>
+      <c r="X24" s="192"/>
+      <c r="Y24" s="192"/>
+      <c r="Z24" s="192"/>
+      <c r="AA24" s="192"/>
+      <c r="AB24" s="192"/>
+      <c r="AC24" s="192"/>
+      <c r="AD24" s="192"/>
+      <c r="AE24" s="192"/>
+      <c r="AF24" s="192"/>
+      <c r="AG24" s="192"/>
     </row>
     <row r="25" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D25" s="189" t="s">
+      <c r="D25" s="190" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="189"/>
-      <c r="F25" s="189"/>
-      <c r="G25" s="189"/>
-      <c r="H25" s="189"/>
-      <c r="I25" s="189"/>
-      <c r="J25" s="189"/>
-      <c r="K25" s="189" t="s">
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="L25" s="189"/>
-      <c r="M25" s="189"/>
-      <c r="N25" s="189"/>
-      <c r="O25" s="189"/>
-      <c r="P25" s="189"/>
-      <c r="Q25" s="189"/>
-      <c r="R25" s="189"/>
-      <c r="S25" s="189"/>
-      <c r="T25" s="189"/>
-      <c r="U25" s="189"/>
-      <c r="V25" s="189"/>
-      <c r="W25" s="189"/>
-      <c r="X25" s="189"/>
-      <c r="Y25" s="189"/>
-      <c r="Z25" s="189"/>
-      <c r="AA25" s="189"/>
-      <c r="AB25" s="189"/>
-      <c r="AC25" s="189"/>
-      <c r="AD25" s="189"/>
-      <c r="AE25" s="189"/>
-      <c r="AF25" s="189"/>
-      <c r="AG25" s="189"/>
+      <c r="L25" s="190"/>
+      <c r="M25" s="190"/>
+      <c r="N25" s="190"/>
+      <c r="O25" s="190"/>
+      <c r="P25" s="190"/>
+      <c r="Q25" s="190"/>
+      <c r="R25" s="190"/>
+      <c r="S25" s="190"/>
+      <c r="T25" s="190"/>
+      <c r="U25" s="190"/>
+      <c r="V25" s="190"/>
+      <c r="W25" s="190"/>
+      <c r="X25" s="190"/>
+      <c r="Y25" s="190"/>
+      <c r="Z25" s="190"/>
+      <c r="AA25" s="190"/>
+      <c r="AB25" s="190"/>
+      <c r="AC25" s="190"/>
+      <c r="AD25" s="190"/>
+      <c r="AE25" s="190"/>
+      <c r="AF25" s="190"/>
+      <c r="AG25" s="190"/>
     </row>
     <row r="26" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D26" s="189" t="s">
+      <c r="D26" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="E26" s="189"/>
-      <c r="F26" s="189"/>
-      <c r="G26" s="189"/>
-      <c r="H26" s="189"/>
-      <c r="I26" s="189"/>
-      <c r="J26" s="189"/>
-      <c r="K26" s="189" t="s">
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="190" t="s">
         <v>70</v>
       </c>
-      <c r="L26" s="189"/>
-      <c r="M26" s="189"/>
-      <c r="N26" s="189"/>
-      <c r="O26" s="189"/>
-      <c r="P26" s="189"/>
-      <c r="Q26" s="189"/>
-      <c r="R26" s="189"/>
-      <c r="S26" s="189"/>
-      <c r="T26" s="189"/>
-      <c r="U26" s="189"/>
-      <c r="V26" s="189"/>
-      <c r="W26" s="189"/>
-      <c r="X26" s="189"/>
-      <c r="Y26" s="189"/>
-      <c r="Z26" s="189"/>
-      <c r="AA26" s="189"/>
-      <c r="AB26" s="189"/>
-      <c r="AC26" s="189"/>
-      <c r="AD26" s="189"/>
-      <c r="AE26" s="189"/>
-      <c r="AF26" s="189"/>
-      <c r="AG26" s="189"/>
+      <c r="L26" s="190"/>
+      <c r="M26" s="190"/>
+      <c r="N26" s="190"/>
+      <c r="O26" s="190"/>
+      <c r="P26" s="190"/>
+      <c r="Q26" s="190"/>
+      <c r="R26" s="190"/>
+      <c r="S26" s="190"/>
+      <c r="T26" s="190"/>
+      <c r="U26" s="190"/>
+      <c r="V26" s="190"/>
+      <c r="W26" s="190"/>
+      <c r="X26" s="190"/>
+      <c r="Y26" s="190"/>
+      <c r="Z26" s="190"/>
+      <c r="AA26" s="190"/>
+      <c r="AB26" s="190"/>
+      <c r="AC26" s="190"/>
+      <c r="AD26" s="190"/>
+      <c r="AE26" s="190"/>
+      <c r="AF26" s="190"/>
+      <c r="AG26" s="190"/>
     </row>
     <row r="27" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D27" s="189" t="s">
+      <c r="D27" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="E27" s="189"/>
-      <c r="F27" s="189"/>
-      <c r="G27" s="189"/>
-      <c r="H27" s="189"/>
-      <c r="I27" s="189"/>
-      <c r="J27" s="189"/>
-      <c r="K27" s="189" t="s">
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="190" t="s">
         <v>121</v>
       </c>
-      <c r="L27" s="189"/>
-      <c r="M27" s="189"/>
-      <c r="N27" s="189"/>
-      <c r="O27" s="189"/>
-      <c r="P27" s="189"/>
-      <c r="Q27" s="189"/>
-      <c r="R27" s="189"/>
-      <c r="S27" s="189"/>
-      <c r="T27" s="189"/>
-      <c r="U27" s="189"/>
-      <c r="V27" s="189"/>
-      <c r="W27" s="189"/>
-      <c r="X27" s="189"/>
-      <c r="Y27" s="189"/>
-      <c r="Z27" s="189"/>
-      <c r="AA27" s="189"/>
-      <c r="AB27" s="189"/>
-      <c r="AC27" s="189"/>
-      <c r="AD27" s="189"/>
-      <c r="AE27" s="189"/>
-      <c r="AF27" s="189"/>
-      <c r="AG27" s="189"/>
+      <c r="L27" s="190"/>
+      <c r="M27" s="190"/>
+      <c r="N27" s="190"/>
+      <c r="O27" s="190"/>
+      <c r="P27" s="190"/>
+      <c r="Q27" s="190"/>
+      <c r="R27" s="190"/>
+      <c r="S27" s="190"/>
+      <c r="T27" s="190"/>
+      <c r="U27" s="190"/>
+      <c r="V27" s="190"/>
+      <c r="W27" s="190"/>
+      <c r="X27" s="190"/>
+      <c r="Y27" s="190"/>
+      <c r="Z27" s="190"/>
+      <c r="AA27" s="190"/>
+      <c r="AB27" s="190"/>
+      <c r="AC27" s="190"/>
+      <c r="AD27" s="190"/>
+      <c r="AE27" s="190"/>
+      <c r="AF27" s="190"/>
+      <c r="AG27" s="190"/>
     </row>
     <row r="29" spans="3:33" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
@@ -13723,216 +13782,216 @@
       </c>
     </row>
     <row r="31" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="188"/>
-      <c r="F31" s="188"/>
-      <c r="G31" s="188"/>
-      <c r="H31" s="188"/>
-      <c r="I31" s="188"/>
-      <c r="J31" s="188"/>
-      <c r="K31" s="188" t="s">
+      <c r="E31" s="192"/>
+      <c r="F31" s="192"/>
+      <c r="G31" s="192"/>
+      <c r="H31" s="192"/>
+      <c r="I31" s="192"/>
+      <c r="J31" s="192"/>
+      <c r="K31" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="L31" s="188"/>
-      <c r="M31" s="188"/>
-      <c r="N31" s="188"/>
-      <c r="O31" s="188"/>
-      <c r="P31" s="188"/>
-      <c r="Q31" s="188"/>
-      <c r="R31" s="188"/>
-      <c r="S31" s="188"/>
-      <c r="T31" s="188"/>
-      <c r="U31" s="188"/>
-      <c r="V31" s="188"/>
-      <c r="W31" s="188"/>
-      <c r="X31" s="188"/>
-      <c r="Y31" s="188"/>
-      <c r="Z31" s="188"/>
-      <c r="AA31" s="188"/>
-      <c r="AB31" s="188"/>
-      <c r="AC31" s="188"/>
-      <c r="AD31" s="188"/>
-      <c r="AE31" s="188"/>
-      <c r="AF31" s="188"/>
-      <c r="AG31" s="188"/>
+      <c r="L31" s="192"/>
+      <c r="M31" s="192"/>
+      <c r="N31" s="192"/>
+      <c r="O31" s="192"/>
+      <c r="P31" s="192"/>
+      <c r="Q31" s="192"/>
+      <c r="R31" s="192"/>
+      <c r="S31" s="192"/>
+      <c r="T31" s="192"/>
+      <c r="U31" s="192"/>
+      <c r="V31" s="192"/>
+      <c r="W31" s="192"/>
+      <c r="X31" s="192"/>
+      <c r="Y31" s="192"/>
+      <c r="Z31" s="192"/>
+      <c r="AA31" s="192"/>
+      <c r="AB31" s="192"/>
+      <c r="AC31" s="192"/>
+      <c r="AD31" s="192"/>
+      <c r="AE31" s="192"/>
+      <c r="AF31" s="192"/>
+      <c r="AG31" s="192"/>
     </row>
     <row r="32" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="D32" s="186" t="s">
+      <c r="D32" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186" t="s">
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="193"/>
+      <c r="K32" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="L32" s="186"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="186"/>
-      <c r="O32" s="186"/>
-      <c r="P32" s="186"/>
-      <c r="Q32" s="186"/>
-      <c r="R32" s="186"/>
-      <c r="S32" s="186"/>
-      <c r="T32" s="186"/>
-      <c r="U32" s="186"/>
-      <c r="V32" s="186"/>
-      <c r="W32" s="186"/>
-      <c r="X32" s="186"/>
-      <c r="Y32" s="186"/>
-      <c r="Z32" s="186"/>
-      <c r="AA32" s="186"/>
-      <c r="AB32" s="186"/>
-      <c r="AC32" s="186"/>
-      <c r="AD32" s="186"/>
-      <c r="AE32" s="186"/>
-      <c r="AF32" s="186"/>
-      <c r="AG32" s="186"/>
+      <c r="L32" s="193"/>
+      <c r="M32" s="193"/>
+      <c r="N32" s="193"/>
+      <c r="O32" s="193"/>
+      <c r="P32" s="193"/>
+      <c r="Q32" s="193"/>
+      <c r="R32" s="193"/>
+      <c r="S32" s="193"/>
+      <c r="T32" s="193"/>
+      <c r="U32" s="193"/>
+      <c r="V32" s="193"/>
+      <c r="W32" s="193"/>
+      <c r="X32" s="193"/>
+      <c r="Y32" s="193"/>
+      <c r="Z32" s="193"/>
+      <c r="AA32" s="193"/>
+      <c r="AB32" s="193"/>
+      <c r="AC32" s="193"/>
+      <c r="AD32" s="193"/>
+      <c r="AE32" s="193"/>
+      <c r="AF32" s="193"/>
+      <c r="AG32" s="193"/>
     </row>
     <row r="33" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190" t="s">
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="L33" s="190"/>
-      <c r="M33" s="190"/>
-      <c r="N33" s="190"/>
-      <c r="O33" s="190"/>
-      <c r="P33" s="190"/>
-      <c r="Q33" s="190"/>
-      <c r="R33" s="190"/>
-      <c r="S33" s="190"/>
-      <c r="T33" s="190"/>
-      <c r="U33" s="190"/>
-      <c r="V33" s="190"/>
-      <c r="W33" s="190"/>
-      <c r="X33" s="190"/>
-      <c r="Y33" s="190"/>
-      <c r="Z33" s="190"/>
-      <c r="AA33" s="190"/>
-      <c r="AB33" s="190"/>
-      <c r="AC33" s="190"/>
-      <c r="AD33" s="190"/>
-      <c r="AE33" s="190"/>
-      <c r="AF33" s="190"/>
-      <c r="AG33" s="190"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="191"/>
+      <c r="N33" s="191"/>
+      <c r="O33" s="191"/>
+      <c r="P33" s="191"/>
+      <c r="Q33" s="191"/>
+      <c r="R33" s="191"/>
+      <c r="S33" s="191"/>
+      <c r="T33" s="191"/>
+      <c r="U33" s="191"/>
+      <c r="V33" s="191"/>
+      <c r="W33" s="191"/>
+      <c r="X33" s="191"/>
+      <c r="Y33" s="191"/>
+      <c r="Z33" s="191"/>
+      <c r="AA33" s="191"/>
+      <c r="AB33" s="191"/>
+      <c r="AC33" s="191"/>
+      <c r="AD33" s="191"/>
+      <c r="AE33" s="191"/>
+      <c r="AF33" s="191"/>
+      <c r="AG33" s="191"/>
     </row>
     <row r="34" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D34" s="186" t="s">
+      <c r="D34" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="186"/>
-      <c r="K34" s="186" t="s">
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="193"/>
+      <c r="K34" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="L34" s="186"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="186"/>
-      <c r="O34" s="186"/>
-      <c r="P34" s="186"/>
-      <c r="Q34" s="186"/>
-      <c r="R34" s="186"/>
-      <c r="S34" s="186"/>
-      <c r="T34" s="186"/>
-      <c r="U34" s="186"/>
-      <c r="V34" s="186"/>
-      <c r="W34" s="186"/>
-      <c r="X34" s="186"/>
-      <c r="Y34" s="186"/>
-      <c r="Z34" s="186"/>
-      <c r="AA34" s="186"/>
-      <c r="AB34" s="186"/>
-      <c r="AC34" s="186"/>
-      <c r="AD34" s="186"/>
-      <c r="AE34" s="186"/>
-      <c r="AF34" s="186"/>
-      <c r="AG34" s="186"/>
+      <c r="L34" s="193"/>
+      <c r="M34" s="193"/>
+      <c r="N34" s="193"/>
+      <c r="O34" s="193"/>
+      <c r="P34" s="193"/>
+      <c r="Q34" s="193"/>
+      <c r="R34" s="193"/>
+      <c r="S34" s="193"/>
+      <c r="T34" s="193"/>
+      <c r="U34" s="193"/>
+      <c r="V34" s="193"/>
+      <c r="W34" s="193"/>
+      <c r="X34" s="193"/>
+      <c r="Y34" s="193"/>
+      <c r="Z34" s="193"/>
+      <c r="AA34" s="193"/>
+      <c r="AB34" s="193"/>
+      <c r="AC34" s="193"/>
+      <c r="AD34" s="193"/>
+      <c r="AE34" s="193"/>
+      <c r="AF34" s="193"/>
+      <c r="AG34" s="193"/>
     </row>
     <row r="35" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190" t="s">
+      <c r="D35" s="191"/>
+      <c r="E35" s="191"/>
+      <c r="F35" s="191"/>
+      <c r="G35" s="191"/>
+      <c r="H35" s="191"/>
+      <c r="I35" s="191"/>
+      <c r="J35" s="191"/>
+      <c r="K35" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="L35" s="190"/>
-      <c r="M35" s="190"/>
-      <c r="N35" s="190"/>
-      <c r="O35" s="190"/>
-      <c r="P35" s="190"/>
-      <c r="Q35" s="190"/>
-      <c r="R35" s="190"/>
-      <c r="S35" s="190"/>
-      <c r="T35" s="190"/>
-      <c r="U35" s="190"/>
-      <c r="V35" s="190"/>
-      <c r="W35" s="190"/>
-      <c r="X35" s="190"/>
-      <c r="Y35" s="190"/>
-      <c r="Z35" s="190"/>
-      <c r="AA35" s="190"/>
-      <c r="AB35" s="190"/>
-      <c r="AC35" s="190"/>
-      <c r="AD35" s="190"/>
-      <c r="AE35" s="190"/>
-      <c r="AF35" s="190"/>
-      <c r="AG35" s="190"/>
+      <c r="L35" s="191"/>
+      <c r="M35" s="191"/>
+      <c r="N35" s="191"/>
+      <c r="O35" s="191"/>
+      <c r="P35" s="191"/>
+      <c r="Q35" s="191"/>
+      <c r="R35" s="191"/>
+      <c r="S35" s="191"/>
+      <c r="T35" s="191"/>
+      <c r="U35" s="191"/>
+      <c r="V35" s="191"/>
+      <c r="W35" s="191"/>
+      <c r="X35" s="191"/>
+      <c r="Y35" s="191"/>
+      <c r="Z35" s="191"/>
+      <c r="AA35" s="191"/>
+      <c r="AB35" s="191"/>
+      <c r="AC35" s="191"/>
+      <c r="AD35" s="191"/>
+      <c r="AE35" s="191"/>
+      <c r="AF35" s="191"/>
+      <c r="AG35" s="191"/>
     </row>
     <row r="36" spans="2:33" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D36" s="189" t="s">
+      <c r="D36" s="190" t="s">
         <v>129</v>
       </c>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="189" t="s">
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="L36" s="189"/>
-      <c r="M36" s="189"/>
-      <c r="N36" s="189"/>
-      <c r="O36" s="189"/>
-      <c r="P36" s="189"/>
-      <c r="Q36" s="189"/>
-      <c r="R36" s="189"/>
-      <c r="S36" s="189"/>
-      <c r="T36" s="189"/>
-      <c r="U36" s="189"/>
-      <c r="V36" s="189"/>
-      <c r="W36" s="189"/>
-      <c r="X36" s="189"/>
-      <c r="Y36" s="189"/>
-      <c r="Z36" s="189"/>
-      <c r="AA36" s="189"/>
-      <c r="AB36" s="189"/>
-      <c r="AC36" s="189"/>
-      <c r="AD36" s="189"/>
-      <c r="AE36" s="189"/>
-      <c r="AF36" s="189"/>
-      <c r="AG36" s="189"/>
+      <c r="L36" s="190"/>
+      <c r="M36" s="190"/>
+      <c r="N36" s="190"/>
+      <c r="O36" s="190"/>
+      <c r="P36" s="190"/>
+      <c r="Q36" s="190"/>
+      <c r="R36" s="190"/>
+      <c r="S36" s="190"/>
+      <c r="T36" s="190"/>
+      <c r="U36" s="190"/>
+      <c r="V36" s="190"/>
+      <c r="W36" s="190"/>
+      <c r="X36" s="190"/>
+      <c r="Y36" s="190"/>
+      <c r="Z36" s="190"/>
+      <c r="AA36" s="190"/>
+      <c r="AB36" s="190"/>
+      <c r="AC36" s="190"/>
+      <c r="AD36" s="190"/>
+      <c r="AE36" s="190"/>
+      <c r="AF36" s="190"/>
+      <c r="AG36" s="190"/>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
@@ -13940,76 +13999,76 @@
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D40" s="188" t="s">
+      <c r="D40" s="192" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
-      <c r="I40" s="188"/>
-      <c r="J40" s="188"/>
-      <c r="K40" s="188" t="s">
+      <c r="E40" s="192"/>
+      <c r="F40" s="192"/>
+      <c r="G40" s="192"/>
+      <c r="H40" s="192"/>
+      <c r="I40" s="192"/>
+      <c r="J40" s="192"/>
+      <c r="K40" s="192" t="s">
         <v>58</v>
       </c>
-      <c r="L40" s="188"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="188"/>
-      <c r="O40" s="188"/>
-      <c r="P40" s="188"/>
-      <c r="Q40" s="188"/>
-      <c r="R40" s="188"/>
-      <c r="S40" s="188"/>
-      <c r="T40" s="188"/>
-      <c r="U40" s="188"/>
-      <c r="V40" s="188"/>
-      <c r="W40" s="188"/>
-      <c r="X40" s="188"/>
-      <c r="Y40" s="188"/>
-      <c r="Z40" s="188"/>
-      <c r="AA40" s="188"/>
-      <c r="AB40" s="188"/>
-      <c r="AC40" s="188"/>
-      <c r="AD40" s="188"/>
-      <c r="AE40" s="188"/>
-      <c r="AF40" s="188"/>
-      <c r="AG40" s="188"/>
+      <c r="L40" s="192"/>
+      <c r="M40" s="192"/>
+      <c r="N40" s="192"/>
+      <c r="O40" s="192"/>
+      <c r="P40" s="192"/>
+      <c r="Q40" s="192"/>
+      <c r="R40" s="192"/>
+      <c r="S40" s="192"/>
+      <c r="T40" s="192"/>
+      <c r="U40" s="192"/>
+      <c r="V40" s="192"/>
+      <c r="W40" s="192"/>
+      <c r="X40" s="192"/>
+      <c r="Y40" s="192"/>
+      <c r="Z40" s="192"/>
+      <c r="AA40" s="192"/>
+      <c r="AB40" s="192"/>
+      <c r="AC40" s="192"/>
+      <c r="AD40" s="192"/>
+      <c r="AE40" s="192"/>
+      <c r="AF40" s="192"/>
+      <c r="AG40" s="192"/>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.15">
-      <c r="D41" s="189" t="s">
+      <c r="D41" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="189" t="s">
+      <c r="E41" s="190"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="190" t="s">
         <v>71</v>
       </c>
-      <c r="L41" s="189"/>
-      <c r="M41" s="189"/>
-      <c r="N41" s="189"/>
-      <c r="O41" s="189"/>
-      <c r="P41" s="189"/>
-      <c r="Q41" s="189"/>
-      <c r="R41" s="189"/>
-      <c r="S41" s="189"/>
-      <c r="T41" s="189"/>
-      <c r="U41" s="189"/>
-      <c r="V41" s="189"/>
-      <c r="W41" s="189"/>
-      <c r="X41" s="189"/>
-      <c r="Y41" s="189"/>
-      <c r="Z41" s="189"/>
-      <c r="AA41" s="189"/>
-      <c r="AB41" s="189"/>
-      <c r="AC41" s="189"/>
-      <c r="AD41" s="189"/>
-      <c r="AE41" s="189"/>
-      <c r="AF41" s="189"/>
-      <c r="AG41" s="189"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="190"/>
+      <c r="N41" s="190"/>
+      <c r="O41" s="190"/>
+      <c r="P41" s="190"/>
+      <c r="Q41" s="190"/>
+      <c r="R41" s="190"/>
+      <c r="S41" s="190"/>
+      <c r="T41" s="190"/>
+      <c r="U41" s="190"/>
+      <c r="V41" s="190"/>
+      <c r="W41" s="190"/>
+      <c r="X41" s="190"/>
+      <c r="Y41" s="190"/>
+      <c r="Z41" s="190"/>
+      <c r="AA41" s="190"/>
+      <c r="AB41" s="190"/>
+      <c r="AC41" s="190"/>
+      <c r="AD41" s="190"/>
+      <c r="AE41" s="190"/>
+      <c r="AF41" s="190"/>
+      <c r="AG41" s="190"/>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.15">
       <c r="D42" s="43"/>
@@ -14489,39 +14548,6 @@
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K41:AG41"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:AG35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="K36:AG36"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K40:AG40"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="K32:AG32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="K33:AG33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="K34:AG34"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="K26:AG26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:AG27"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="K31:AG31"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="K20:AG20"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="K24:AG24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="K25:AG25"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="K17:AG17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="K18:AG18"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D19:J19"/>
     <mergeCell ref="K19:AG19"/>
     <mergeCell ref="AG1:AI1"/>
@@ -14538,6 +14564,39 @@
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="K17:AG17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="K18:AG18"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="K20:AG20"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="K24:AG24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="K25:AG25"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="K26:AG26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:AG27"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="K31:AG31"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="K32:AG32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="K33:AG33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="K34:AG34"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K41:AG41"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:AG35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="K36:AG36"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="K40:AG40"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -14576,163 +14635,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="112" t="str">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="100" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="112" t="str">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="100" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+        <v>44903</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:66" s="11" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="112" t="str">
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -14743,575 +14802,649 @@
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.15">
-      <c r="A7" s="214" t="s">
+      <c r="A7" s="250" t="s">
         <v>157</v>
       </c>
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="252" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="216"/>
-      <c r="D7" s="216"/>
-      <c r="E7" s="216"/>
-      <c r="F7" s="216"/>
-      <c r="G7" s="222" t="s">
+      <c r="C7" s="252"/>
+      <c r="D7" s="252"/>
+      <c r="E7" s="252"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="244" t="s">
         <v>102</v>
       </c>
-      <c r="H7" s="223"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
-      <c r="L7" s="223"/>
-      <c r="M7" s="223"/>
-      <c r="N7" s="224"/>
-      <c r="O7" s="219" t="s">
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="245"/>
+      <c r="L7" s="245"/>
+      <c r="M7" s="245"/>
+      <c r="N7" s="246"/>
+      <c r="O7" s="243" t="s">
         <v>24</v>
       </c>
-      <c r="P7" s="219"/>
-      <c r="Q7" s="219"/>
-      <c r="R7" s="188" t="s">
+      <c r="P7" s="243"/>
+      <c r="Q7" s="243"/>
+      <c r="R7" s="192" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="188"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="188"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="188"/>
-      <c r="X7" s="242" t="s">
+      <c r="S7" s="192"/>
+      <c r="T7" s="192"/>
+      <c r="U7" s="192"/>
+      <c r="V7" s="192"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="239" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="243"/>
-      <c r="Z7" s="243"/>
-      <c r="AA7" s="243"/>
-      <c r="AB7" s="243"/>
-      <c r="AC7" s="244"/>
-      <c r="AD7" s="219" t="s">
+      <c r="Y7" s="240"/>
+      <c r="Z7" s="240"/>
+      <c r="AA7" s="240"/>
+      <c r="AB7" s="240"/>
+      <c r="AC7" s="241"/>
+      <c r="AD7" s="243" t="s">
         <v>11</v>
       </c>
-      <c r="AE7" s="219"/>
-      <c r="AF7" s="219"/>
-      <c r="AG7" s="219"/>
-      <c r="AH7" s="219"/>
-      <c r="AI7" s="219"/>
+      <c r="AE7" s="243"/>
+      <c r="AF7" s="243"/>
+      <c r="AG7" s="243"/>
+      <c r="AH7" s="243"/>
+      <c r="AI7" s="243"/>
       <c r="AJ7" s="58"/>
-      <c r="AL7" s="197" t="s">
+      <c r="AL7" s="254" t="s">
         <v>103</v>
       </c>
-      <c r="AM7" s="198"/>
-      <c r="AN7" s="198"/>
-      <c r="AO7" s="198"/>
-      <c r="AP7" s="198"/>
-      <c r="AQ7" s="198"/>
-      <c r="AR7" s="198"/>
-      <c r="AS7" s="198"/>
-      <c r="AT7" s="198"/>
-      <c r="AU7" s="198"/>
-      <c r="AV7" s="198"/>
-      <c r="AW7" s="198"/>
-      <c r="AX7" s="197" t="s">
+      <c r="AM7" s="255"/>
+      <c r="AN7" s="255"/>
+      <c r="AO7" s="255"/>
+      <c r="AP7" s="255"/>
+      <c r="AQ7" s="255"/>
+      <c r="AR7" s="255"/>
+      <c r="AS7" s="255"/>
+      <c r="AT7" s="255"/>
+      <c r="AU7" s="255"/>
+      <c r="AV7" s="255"/>
+      <c r="AW7" s="255"/>
+      <c r="AX7" s="254" t="s">
         <v>23</v>
       </c>
-      <c r="AY7" s="198"/>
-      <c r="AZ7" s="198"/>
-      <c r="BA7" s="198"/>
-      <c r="BB7" s="198"/>
-      <c r="BC7" s="201" t="s">
+      <c r="AY7" s="255"/>
+      <c r="AZ7" s="255"/>
+      <c r="BA7" s="255"/>
+      <c r="BB7" s="255"/>
+      <c r="BC7" s="256" t="s">
         <v>51</v>
       </c>
-      <c r="BD7" s="202"/>
-      <c r="BE7" s="202"/>
-      <c r="BF7" s="202"/>
-      <c r="BG7" s="203"/>
-      <c r="BH7" s="198" t="s">
+      <c r="BD7" s="257"/>
+      <c r="BE7" s="257"/>
+      <c r="BF7" s="257"/>
+      <c r="BG7" s="258"/>
+      <c r="BH7" s="255" t="s">
         <v>50</v>
       </c>
-      <c r="BI7" s="198"/>
-      <c r="BJ7" s="198"/>
-      <c r="BK7" s="198"/>
-      <c r="BL7" s="198"/>
-      <c r="BM7" s="198"/>
-      <c r="BN7" s="198"/>
+      <c r="BI7" s="255"/>
+      <c r="BJ7" s="255"/>
+      <c r="BK7" s="255"/>
+      <c r="BL7" s="255"/>
+      <c r="BM7" s="255"/>
+      <c r="BN7" s="255"/>
     </row>
     <row r="8" spans="1:66" s="59" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="215"/>
-      <c r="B8" s="216"/>
-      <c r="C8" s="216"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="216"/>
-      <c r="G8" s="225"/>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="226"/>
-      <c r="K8" s="226"/>
-      <c r="L8" s="226"/>
-      <c r="M8" s="226"/>
-      <c r="N8" s="227"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="219"/>
-      <c r="Q8" s="219"/>
-      <c r="R8" s="217" t="s">
+      <c r="A8" s="251"/>
+      <c r="B8" s="252"/>
+      <c r="C8" s="252"/>
+      <c r="D8" s="252"/>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="248"/>
+      <c r="I8" s="248"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="248"/>
+      <c r="M8" s="248"/>
+      <c r="N8" s="249"/>
+      <c r="O8" s="243"/>
+      <c r="P8" s="243"/>
+      <c r="Q8" s="243"/>
+      <c r="R8" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218" t="s">
+      <c r="S8" s="238"/>
+      <c r="T8" s="238" t="s">
         <v>28</v>
       </c>
-      <c r="U8" s="218"/>
-      <c r="V8" s="240" t="s">
+      <c r="U8" s="238"/>
+      <c r="V8" s="235" t="s">
         <v>29</v>
       </c>
-      <c r="W8" s="235"/>
-      <c r="X8" s="241" t="s">
+      <c r="W8" s="236"/>
+      <c r="X8" s="237" t="s">
         <v>160</v>
       </c>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="234" t="s">
+      <c r="Y8" s="238"/>
+      <c r="Z8" s="238"/>
+      <c r="AA8" s="242" t="s">
         <v>161</v>
       </c>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="235"/>
-      <c r="AD8" s="219"/>
-      <c r="AE8" s="219"/>
-      <c r="AF8" s="219"/>
-      <c r="AG8" s="219"/>
-      <c r="AH8" s="219"/>
-      <c r="AI8" s="219"/>
+      <c r="AB8" s="238"/>
+      <c r="AC8" s="236"/>
+      <c r="AD8" s="243"/>
+      <c r="AE8" s="243"/>
+      <c r="AF8" s="243"/>
+      <c r="AG8" s="243"/>
+      <c r="AH8" s="243"/>
+      <c r="AI8" s="243"/>
       <c r="AJ8" s="58"/>
-      <c r="AL8" s="198"/>
-      <c r="AM8" s="198"/>
-      <c r="AN8" s="198"/>
-      <c r="AO8" s="198"/>
-      <c r="AP8" s="198"/>
-      <c r="AQ8" s="198"/>
-      <c r="AR8" s="198"/>
-      <c r="AS8" s="198"/>
-      <c r="AT8" s="198"/>
-      <c r="AU8" s="198"/>
-      <c r="AV8" s="198"/>
-      <c r="AW8" s="198"/>
-      <c r="AX8" s="198"/>
-      <c r="AY8" s="198"/>
-      <c r="AZ8" s="198"/>
-      <c r="BA8" s="198"/>
-      <c r="BB8" s="198"/>
-      <c r="BC8" s="204"/>
-      <c r="BD8" s="205"/>
-      <c r="BE8" s="205"/>
-      <c r="BF8" s="205"/>
-      <c r="BG8" s="206"/>
-      <c r="BH8" s="198"/>
-      <c r="BI8" s="198"/>
-      <c r="BJ8" s="198"/>
-      <c r="BK8" s="198"/>
-      <c r="BL8" s="198"/>
-      <c r="BM8" s="198"/>
-      <c r="BN8" s="198"/>
+      <c r="AL8" s="255"/>
+      <c r="AM8" s="255"/>
+      <c r="AN8" s="255"/>
+      <c r="AO8" s="255"/>
+      <c r="AP8" s="255"/>
+      <c r="AQ8" s="255"/>
+      <c r="AR8" s="255"/>
+      <c r="AS8" s="255"/>
+      <c r="AT8" s="255"/>
+      <c r="AU8" s="255"/>
+      <c r="AV8" s="255"/>
+      <c r="AW8" s="255"/>
+      <c r="AX8" s="255"/>
+      <c r="AY8" s="255"/>
+      <c r="AZ8" s="255"/>
+      <c r="BA8" s="255"/>
+      <c r="BB8" s="255"/>
+      <c r="BC8" s="259"/>
+      <c r="BD8" s="260"/>
+      <c r="BE8" s="260"/>
+      <c r="BF8" s="260"/>
+      <c r="BG8" s="261"/>
+      <c r="BH8" s="255"/>
+      <c r="BI8" s="255"/>
+      <c r="BJ8" s="255"/>
+      <c r="BK8" s="255"/>
+      <c r="BL8" s="255"/>
+      <c r="BM8" s="255"/>
+      <c r="BN8" s="255"/>
     </row>
     <row r="9" spans="1:66" s="31" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="60">
         <v>1</v>
       </c>
-      <c r="B9" s="231" t="s">
+      <c r="B9" s="228" t="s">
         <v>174</v>
       </c>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="194" t="s">
+      <c r="C9" s="229"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="229"/>
+      <c r="F9" s="230"/>
+      <c r="G9" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="H9" s="209"/>
-      <c r="I9" s="209"/>
-      <c r="J9" s="209"/>
-      <c r="K9" s="209"/>
-      <c r="L9" s="209"/>
-      <c r="M9" s="209"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="228" t="s">
+      <c r="H9" s="206"/>
+      <c r="I9" s="206"/>
+      <c r="J9" s="206"/>
+      <c r="K9" s="206"/>
+      <c r="L9" s="206"/>
+      <c r="M9" s="206"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="P9" s="229"/>
-      <c r="Q9" s="230"/>
-      <c r="R9" s="220"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="238">
-        <v>10</v>
-      </c>
-      <c r="U9" s="239"/>
-      <c r="V9" s="192">
-        <v>0</v>
-      </c>
-      <c r="W9" s="193"/>
-      <c r="X9" s="236"/>
-      <c r="Y9" s="237"/>
-      <c r="Z9" s="237"/>
-      <c r="AA9" s="199"/>
-      <c r="AB9" s="199"/>
-      <c r="AC9" s="200"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="148"/>
-      <c r="AF9" s="148"/>
-      <c r="AG9" s="148"/>
-      <c r="AH9" s="148"/>
-      <c r="AI9" s="149"/>
+      <c r="P9" s="204"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="223"/>
+      <c r="S9" s="224"/>
+      <c r="T9" s="233">
+        <v>9</v>
+      </c>
+      <c r="U9" s="234"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="213"/>
+      <c r="X9" s="231"/>
+      <c r="Y9" s="232"/>
+      <c r="Z9" s="232"/>
+      <c r="AA9" s="211"/>
+      <c r="AB9" s="211"/>
+      <c r="AC9" s="219"/>
+      <c r="AD9" s="196" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE9" s="113"/>
+      <c r="AF9" s="113"/>
+      <c r="AG9" s="113"/>
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="114"/>
       <c r="AJ9" s="36"/>
-      <c r="AL9" s="194" t="s">
+      <c r="AL9" s="196" t="s">
         <v>165</v>
       </c>
-      <c r="AM9" s="195"/>
-      <c r="AN9" s="195"/>
-      <c r="AO9" s="195"/>
-      <c r="AP9" s="195"/>
-      <c r="AQ9" s="195"/>
-      <c r="AR9" s="195"/>
-      <c r="AS9" s="195"/>
-      <c r="AT9" s="195"/>
-      <c r="AU9" s="195"/>
-      <c r="AV9" s="195"/>
-      <c r="AW9" s="196"/>
-      <c r="AX9" s="194" t="s">
+      <c r="AM9" s="265"/>
+      <c r="AN9" s="265"/>
+      <c r="AO9" s="265"/>
+      <c r="AP9" s="265"/>
+      <c r="AQ9" s="265"/>
+      <c r="AR9" s="265"/>
+      <c r="AS9" s="265"/>
+      <c r="AT9" s="265"/>
+      <c r="AU9" s="265"/>
+      <c r="AV9" s="265"/>
+      <c r="AW9" s="266"/>
+      <c r="AX9" s="196" t="s">
         <v>180</v>
       </c>
-      <c r="AY9" s="209"/>
-      <c r="AZ9" s="209"/>
-      <c r="BA9" s="209"/>
-      <c r="BB9" s="210"/>
-      <c r="BC9" s="194"/>
-      <c r="BD9" s="207"/>
-      <c r="BE9" s="207"/>
-      <c r="BF9" s="207"/>
-      <c r="BG9" s="208"/>
-      <c r="BH9" s="213"/>
-      <c r="BI9" s="213"/>
-      <c r="BJ9" s="213"/>
-      <c r="BK9" s="213"/>
-      <c r="BL9" s="213"/>
-      <c r="BM9" s="213"/>
-      <c r="BN9" s="213"/>
+      <c r="AY9" s="206"/>
+      <c r="AZ9" s="206"/>
+      <c r="BA9" s="206"/>
+      <c r="BB9" s="207"/>
+      <c r="BC9" s="196"/>
+      <c r="BD9" s="262"/>
+      <c r="BE9" s="262"/>
+      <c r="BF9" s="262"/>
+      <c r="BG9" s="263"/>
+      <c r="BH9" s="198"/>
+      <c r="BI9" s="198"/>
+      <c r="BJ9" s="198"/>
+      <c r="BK9" s="198"/>
+      <c r="BL9" s="198"/>
+      <c r="BM9" s="198"/>
+      <c r="BN9" s="198"/>
     </row>
     <row r="10" spans="1:66" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="60">
         <v>2</v>
       </c>
-      <c r="B10" s="231" t="s">
+      <c r="B10" s="228" t="s">
         <v>175</v>
       </c>
-      <c r="C10" s="232"/>
-      <c r="D10" s="232"/>
-      <c r="E10" s="232"/>
-      <c r="F10" s="233"/>
-      <c r="G10" s="194" t="s">
+      <c r="C10" s="229"/>
+      <c r="D10" s="229"/>
+      <c r="E10" s="229"/>
+      <c r="F10" s="230"/>
+      <c r="G10" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="209"/>
-      <c r="I10" s="209"/>
-      <c r="J10" s="209"/>
-      <c r="K10" s="209"/>
-      <c r="L10" s="209"/>
-      <c r="M10" s="209"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="228" t="s">
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="206"/>
+      <c r="L10" s="206"/>
+      <c r="M10" s="206"/>
+      <c r="N10" s="207"/>
+      <c r="O10" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="P10" s="229"/>
-      <c r="Q10" s="230"/>
-      <c r="R10" s="220"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="238">
+      <c r="P10" s="204"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="223"/>
+      <c r="S10" s="224"/>
+      <c r="T10" s="233">
         <v>128</v>
       </c>
-      <c r="U10" s="239"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="193"/>
-      <c r="X10" s="236"/>
-      <c r="Y10" s="237"/>
-      <c r="Z10" s="237"/>
-      <c r="AA10" s="199"/>
-      <c r="AB10" s="199"/>
-      <c r="AC10" s="200"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="148"/>
-      <c r="AF10" s="148"/>
-      <c r="AG10" s="148"/>
-      <c r="AH10" s="148"/>
-      <c r="AI10" s="149"/>
+      <c r="U10" s="234"/>
+      <c r="V10" s="212"/>
+      <c r="W10" s="213"/>
+      <c r="X10" s="231"/>
+      <c r="Y10" s="232"/>
+      <c r="Z10" s="232"/>
+      <c r="AA10" s="211"/>
+      <c r="AB10" s="211"/>
+      <c r="AC10" s="219"/>
+      <c r="AD10" s="112"/>
+      <c r="AE10" s="113"/>
+      <c r="AF10" s="113"/>
+      <c r="AG10" s="113"/>
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="114"/>
       <c r="AJ10" s="37"/>
-      <c r="AL10" s="194" t="s">
+      <c r="AL10" s="196" t="s">
         <v>178</v>
       </c>
-      <c r="AM10" s="145"/>
-      <c r="AN10" s="145"/>
-      <c r="AO10" s="145"/>
-      <c r="AP10" s="145"/>
-      <c r="AQ10" s="145"/>
-      <c r="AR10" s="145"/>
-      <c r="AS10" s="145"/>
-      <c r="AT10" s="145"/>
-      <c r="AU10" s="145"/>
-      <c r="AV10" s="145"/>
-      <c r="AW10" s="146"/>
-      <c r="AX10" s="194" t="s">
+      <c r="AM10" s="102"/>
+      <c r="AN10" s="102"/>
+      <c r="AO10" s="102"/>
+      <c r="AP10" s="102"/>
+      <c r="AQ10" s="102"/>
+      <c r="AR10" s="102"/>
+      <c r="AS10" s="102"/>
+      <c r="AT10" s="102"/>
+      <c r="AU10" s="102"/>
+      <c r="AV10" s="102"/>
+      <c r="AW10" s="103"/>
+      <c r="AX10" s="196" t="s">
         <v>181</v>
       </c>
-      <c r="AY10" s="209"/>
-      <c r="AZ10" s="209"/>
-      <c r="BA10" s="209"/>
-      <c r="BB10" s="210"/>
-      <c r="BC10" s="194" t="s">
+      <c r="AY10" s="206"/>
+      <c r="AZ10" s="206"/>
+      <c r="BA10" s="206"/>
+      <c r="BB10" s="207"/>
+      <c r="BC10" s="196" t="s">
         <v>182</v>
       </c>
-      <c r="BD10" s="209"/>
-      <c r="BE10" s="209"/>
-      <c r="BF10" s="209"/>
-      <c r="BG10" s="210"/>
-      <c r="BH10" s="213"/>
-      <c r="BI10" s="213"/>
-      <c r="BJ10" s="213"/>
-      <c r="BK10" s="213"/>
-      <c r="BL10" s="213"/>
-      <c r="BM10" s="213"/>
-      <c r="BN10" s="213"/>
+      <c r="BD10" s="206"/>
+      <c r="BE10" s="206"/>
+      <c r="BF10" s="206"/>
+      <c r="BG10" s="207"/>
+      <c r="BH10" s="198"/>
+      <c r="BI10" s="198"/>
+      <c r="BJ10" s="198"/>
+      <c r="BK10" s="198"/>
+      <c r="BL10" s="198"/>
+      <c r="BM10" s="198"/>
+      <c r="BN10" s="198"/>
     </row>
     <row r="11" spans="1:66" s="31" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="60">
         <v>3</v>
       </c>
-      <c r="B11" s="231" t="s">
+      <c r="B11" s="228" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="232"/>
-      <c r="D11" s="232"/>
-      <c r="E11" s="232"/>
-      <c r="F11" s="233"/>
-      <c r="G11" s="194" t="s">
+      <c r="C11" s="229"/>
+      <c r="D11" s="229"/>
+      <c r="E11" s="229"/>
+      <c r="F11" s="230"/>
+      <c r="G11" s="196" t="s">
         <v>185</v>
       </c>
-      <c r="H11" s="209"/>
-      <c r="I11" s="209"/>
-      <c r="J11" s="209"/>
-      <c r="K11" s="209"/>
-      <c r="L11" s="209"/>
-      <c r="M11" s="209"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="228" t="s">
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
+      <c r="L11" s="206"/>
+      <c r="M11" s="206"/>
+      <c r="N11" s="207"/>
+      <c r="O11" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="P11" s="229"/>
-      <c r="Q11" s="230"/>
-      <c r="R11" s="220"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="255"/>
-      <c r="U11" s="256"/>
-      <c r="V11" s="192"/>
-      <c r="W11" s="193"/>
-      <c r="X11" s="236" t="s">
+      <c r="P11" s="204"/>
+      <c r="Q11" s="205"/>
+      <c r="R11" s="223"/>
+      <c r="S11" s="224"/>
+      <c r="T11" s="201"/>
+      <c r="U11" s="202"/>
+      <c r="V11" s="212"/>
+      <c r="W11" s="213"/>
+      <c r="X11" s="231" t="s">
         <v>179</v>
       </c>
-      <c r="Y11" s="237"/>
-      <c r="Z11" s="237"/>
-      <c r="AA11" s="199"/>
-      <c r="AB11" s="199"/>
-      <c r="AC11" s="200"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="148"/>
-      <c r="AF11" s="148"/>
-      <c r="AG11" s="148"/>
-      <c r="AH11" s="148"/>
-      <c r="AI11" s="149"/>
+      <c r="Y11" s="232"/>
+      <c r="Z11" s="232"/>
+      <c r="AA11" s="211"/>
+      <c r="AB11" s="211"/>
+      <c r="AC11" s="219"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="114"/>
       <c r="AJ11" s="36"/>
-      <c r="AL11" s="194" t="s">
+      <c r="AL11" s="196" t="s">
         <v>162</v>
       </c>
-      <c r="AM11" s="148"/>
-      <c r="AN11" s="148"/>
-      <c r="AO11" s="148"/>
-      <c r="AP11" s="148"/>
-      <c r="AQ11" s="148"/>
-      <c r="AR11" s="148"/>
-      <c r="AS11" s="148"/>
-      <c r="AT11" s="148"/>
-      <c r="AU11" s="148"/>
-      <c r="AV11" s="148"/>
-      <c r="AW11" s="149"/>
-      <c r="AX11" s="194" t="s">
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
+      <c r="AO11" s="113"/>
+      <c r="AP11" s="113"/>
+      <c r="AQ11" s="113"/>
+      <c r="AR11" s="113"/>
+      <c r="AS11" s="113"/>
+      <c r="AT11" s="113"/>
+      <c r="AU11" s="113"/>
+      <c r="AV11" s="113"/>
+      <c r="AW11" s="114"/>
+      <c r="AX11" s="196" t="s">
         <v>183</v>
       </c>
-      <c r="AY11" s="209"/>
-      <c r="AZ11" s="209"/>
-      <c r="BA11" s="209"/>
-      <c r="BB11" s="210"/>
-      <c r="BC11" s="194"/>
-      <c r="BD11" s="207"/>
-      <c r="BE11" s="207"/>
-      <c r="BF11" s="207"/>
-      <c r="BG11" s="208"/>
-      <c r="BH11" s="213"/>
-      <c r="BI11" s="213"/>
-      <c r="BJ11" s="213"/>
-      <c r="BK11" s="213"/>
-      <c r="BL11" s="213"/>
-      <c r="BM11" s="213"/>
-      <c r="BN11" s="213"/>
+      <c r="AY11" s="206"/>
+      <c r="AZ11" s="206"/>
+      <c r="BA11" s="206"/>
+      <c r="BB11" s="207"/>
+      <c r="BC11" s="196"/>
+      <c r="BD11" s="262"/>
+      <c r="BE11" s="262"/>
+      <c r="BF11" s="262"/>
+      <c r="BG11" s="263"/>
+      <c r="BH11" s="198"/>
+      <c r="BI11" s="198"/>
+      <c r="BJ11" s="198"/>
+      <c r="BK11" s="198"/>
+      <c r="BL11" s="198"/>
+      <c r="BM11" s="198"/>
+      <c r="BN11" s="198"/>
     </row>
     <row r="12" spans="1:66" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="60">
         <v>4</v>
       </c>
-      <c r="B12" s="245" t="s">
+      <c r="B12" s="220" t="s">
+        <v>192</v>
+      </c>
+      <c r="C12" s="221"/>
+      <c r="D12" s="221"/>
+      <c r="E12" s="221"/>
+      <c r="F12" s="222"/>
+      <c r="G12" s="225"/>
+      <c r="H12" s="226"/>
+      <c r="I12" s="226"/>
+      <c r="J12" s="226"/>
+      <c r="K12" s="226"/>
+      <c r="L12" s="226"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="227"/>
+      <c r="O12" s="214" t="s">
+        <v>43</v>
+      </c>
+      <c r="P12" s="215"/>
+      <c r="Q12" s="216"/>
+      <c r="R12" s="217"/>
+      <c r="S12" s="218"/>
+      <c r="T12" s="199"/>
+      <c r="U12" s="200"/>
+      <c r="V12" s="208"/>
+      <c r="W12" s="209"/>
+      <c r="X12" s="210"/>
+      <c r="Y12" s="211"/>
+      <c r="Z12" s="211"/>
+      <c r="AA12" s="211"/>
+      <c r="AB12" s="211"/>
+      <c r="AC12" s="219"/>
+      <c r="AD12" s="196" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE12" s="113"/>
+      <c r="AF12" s="113"/>
+      <c r="AG12" s="113"/>
+      <c r="AH12" s="113"/>
+      <c r="AI12" s="114"/>
+      <c r="AJ12" s="31"/>
+      <c r="AK12" s="94"/>
+      <c r="AL12" s="196" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM12" s="102"/>
+      <c r="AN12" s="102"/>
+      <c r="AO12" s="102"/>
+      <c r="AP12" s="102"/>
+      <c r="AQ12" s="102"/>
+      <c r="AR12" s="102"/>
+      <c r="AS12" s="102"/>
+      <c r="AT12" s="102"/>
+      <c r="AU12" s="102"/>
+      <c r="AV12" s="102"/>
+      <c r="AW12" s="103"/>
+      <c r="AX12" s="197" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="246"/>
-      <c r="D12" s="246"/>
-      <c r="E12" s="246"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="271"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="272"/>
-      <c r="J12" s="272"/>
-      <c r="K12" s="272"/>
-      <c r="L12" s="272"/>
-      <c r="M12" s="272"/>
-      <c r="N12" s="273"/>
-      <c r="O12" s="250" t="s">
-        <v>43</v>
-      </c>
-      <c r="P12" s="251"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="248"/>
-      <c r="S12" s="249"/>
-      <c r="T12" s="253">
-        <v>4</v>
-      </c>
-      <c r="U12" s="254"/>
-      <c r="V12" s="257"/>
-      <c r="W12" s="258"/>
-      <c r="X12" s="259"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="199"/>
-      <c r="AA12" s="199"/>
-      <c r="AB12" s="199"/>
-      <c r="AC12" s="200"/>
-      <c r="AD12" s="194"/>
-      <c r="AE12" s="148"/>
-      <c r="AF12" s="148"/>
-      <c r="AG12" s="148"/>
-      <c r="AH12" s="148"/>
-      <c r="AI12" s="149"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="274"/>
-      <c r="AL12" s="194" t="s">
-        <v>165</v>
-      </c>
-      <c r="AM12" s="145"/>
-      <c r="AN12" s="145"/>
-      <c r="AO12" s="145"/>
-      <c r="AP12" s="145"/>
-      <c r="AQ12" s="145"/>
-      <c r="AR12" s="145"/>
-      <c r="AS12" s="145"/>
-      <c r="AT12" s="145"/>
-      <c r="AU12" s="145"/>
-      <c r="AV12" s="145"/>
-      <c r="AW12" s="146"/>
-      <c r="AX12" s="211" t="s">
-        <v>187</v>
-      </c>
-      <c r="AY12" s="275"/>
-      <c r="AZ12" s="275"/>
-      <c r="BA12" s="275"/>
-      <c r="BB12" s="275"/>
-      <c r="BC12" s="147"/>
-      <c r="BD12" s="148"/>
-      <c r="BE12" s="148"/>
-      <c r="BF12" s="148"/>
-      <c r="BG12" s="149"/>
-      <c r="BH12" s="213"/>
-      <c r="BI12" s="213"/>
-      <c r="BJ12" s="213"/>
-      <c r="BK12" s="213"/>
-      <c r="BL12" s="213"/>
-      <c r="BM12" s="213"/>
-      <c r="BN12" s="213"/>
+      <c r="AY12" s="264"/>
+      <c r="AZ12" s="264"/>
+      <c r="BA12" s="264"/>
+      <c r="BB12" s="264"/>
+      <c r="BC12" s="196" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD12" s="113"/>
+      <c r="BE12" s="113"/>
+      <c r="BF12" s="113"/>
+      <c r="BG12" s="114"/>
+      <c r="BH12" s="198"/>
+      <c r="BI12" s="198"/>
+      <c r="BJ12" s="198"/>
+      <c r="BK12" s="198"/>
+      <c r="BL12" s="198"/>
+      <c r="BM12" s="198"/>
+      <c r="BN12" s="198"/>
     </row>
     <row r="13" spans="1:66" s="31" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="60"/>
-      <c r="B13" s="245"/>
-      <c r="C13" s="246"/>
-      <c r="D13" s="246"/>
-      <c r="E13" s="246"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="148"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="148"/>
-      <c r="N13" s="149"/>
-      <c r="O13" s="250"/>
-      <c r="P13" s="251"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="248"/>
-      <c r="S13" s="249"/>
-      <c r="T13" s="253"/>
-      <c r="U13" s="254"/>
-      <c r="V13" s="257"/>
-      <c r="W13" s="258"/>
-      <c r="X13" s="259"/>
-      <c r="Y13" s="199"/>
-      <c r="Z13" s="199"/>
-      <c r="AA13" s="199"/>
-      <c r="AB13" s="199"/>
-      <c r="AC13" s="200"/>
-      <c r="AD13" s="194"/>
-      <c r="AE13" s="148"/>
-      <c r="AF13" s="148"/>
-      <c r="AG13" s="148"/>
-      <c r="AH13" s="148"/>
-      <c r="AI13" s="149"/>
+      <c r="B13" s="220"/>
+      <c r="C13" s="221"/>
+      <c r="D13" s="221"/>
+      <c r="E13" s="221"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="196"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="214"/>
+      <c r="P13" s="215"/>
+      <c r="Q13" s="216"/>
+      <c r="R13" s="217"/>
+      <c r="S13" s="218"/>
+      <c r="T13" s="199"/>
+      <c r="U13" s="200"/>
+      <c r="V13" s="208"/>
+      <c r="W13" s="209"/>
+      <c r="X13" s="210"/>
+      <c r="Y13" s="211"/>
+      <c r="Z13" s="211"/>
+      <c r="AA13" s="211"/>
+      <c r="AB13" s="211"/>
+      <c r="AC13" s="219"/>
+      <c r="AD13" s="196"/>
+      <c r="AE13" s="113"/>
+      <c r="AF13" s="113"/>
+      <c r="AG13" s="113"/>
+      <c r="AH13" s="113"/>
+      <c r="AI13" s="114"/>
       <c r="AJ13" s="36"/>
-      <c r="AL13" s="194"/>
-      <c r="AM13" s="145"/>
-      <c r="AN13" s="145"/>
-      <c r="AO13" s="145"/>
-      <c r="AP13" s="145"/>
-      <c r="AQ13" s="145"/>
-      <c r="AR13" s="145"/>
-      <c r="AS13" s="145"/>
-      <c r="AT13" s="145"/>
-      <c r="AU13" s="145"/>
-      <c r="AV13" s="145"/>
-      <c r="AW13" s="146"/>
-      <c r="AX13" s="211"/>
-      <c r="AY13" s="212"/>
-      <c r="AZ13" s="212"/>
-      <c r="BA13" s="212"/>
-      <c r="BB13" s="212"/>
-      <c r="BC13" s="147"/>
-      <c r="BD13" s="148"/>
-      <c r="BE13" s="148"/>
-      <c r="BF13" s="148"/>
-      <c r="BG13" s="149"/>
-      <c r="BH13" s="213"/>
-      <c r="BI13" s="213"/>
-      <c r="BJ13" s="213"/>
-      <c r="BK13" s="213"/>
-      <c r="BL13" s="213"/>
-      <c r="BM13" s="213"/>
-      <c r="BN13" s="213"/>
+      <c r="AL13" s="196"/>
+      <c r="AM13" s="102"/>
+      <c r="AN13" s="102"/>
+      <c r="AO13" s="102"/>
+      <c r="AP13" s="102"/>
+      <c r="AQ13" s="102"/>
+      <c r="AR13" s="102"/>
+      <c r="AS13" s="102"/>
+      <c r="AT13" s="102"/>
+      <c r="AU13" s="102"/>
+      <c r="AV13" s="102"/>
+      <c r="AW13" s="103"/>
+      <c r="AX13" s="197"/>
+      <c r="AY13" s="264"/>
+      <c r="AZ13" s="264"/>
+      <c r="BA13" s="264"/>
+      <c r="BB13" s="264"/>
+      <c r="BC13" s="112"/>
+      <c r="BD13" s="113"/>
+      <c r="BE13" s="113"/>
+      <c r="BF13" s="113"/>
+      <c r="BG13" s="114"/>
+      <c r="BH13" s="198"/>
+      <c r="BI13" s="198"/>
+      <c r="BJ13" s="198"/>
+      <c r="BK13" s="198"/>
+      <c r="BL13" s="198"/>
+      <c r="BM13" s="198"/>
+      <c r="BN13" s="198"/>
     </row>
     <row r="14" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="15" spans="1:66" ht="11.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="98">
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="AL12:AW12"/>
-    <mergeCell ref="AX12:BB12"/>
-    <mergeCell ref="BC12:BG12"/>
-    <mergeCell ref="BH12:BN12"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AL11:AW11"/>
+    <mergeCell ref="AD9:AI9"/>
+    <mergeCell ref="AL9:AW9"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AL10:AW10"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AX7:BB8"/>
+    <mergeCell ref="BH7:BN8"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="BC7:BG8"/>
+    <mergeCell ref="BC9:BG9"/>
+    <mergeCell ref="BC10:BG10"/>
+    <mergeCell ref="BC11:BG11"/>
+    <mergeCell ref="BC13:BG13"/>
+    <mergeCell ref="AX11:BB11"/>
+    <mergeCell ref="AX13:BB13"/>
+    <mergeCell ref="AL13:AW13"/>
+    <mergeCell ref="BH9:BN9"/>
+    <mergeCell ref="AX9:BB9"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AL7:AW8"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:F8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="O7:Q8"/>
+    <mergeCell ref="R7:W7"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G7:N8"/>
+    <mergeCell ref="G9:N9"/>
+    <mergeCell ref="G10:N10"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD7:AI8"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="X7:AC7"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="G11:N11"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="O13:Q13"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="G12:N12"/>
     <mergeCell ref="T13:U13"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="O10:Q10"/>
@@ -15328,83 +15461,11 @@
     <mergeCell ref="V12:W12"/>
     <mergeCell ref="X12:Z12"/>
     <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="O11:Q11"/>
-    <mergeCell ref="O13:Q13"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="X11:Z11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="X10:Z10"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="X7:AC7"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD7:AI8"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G7:N8"/>
-    <mergeCell ref="G9:N9"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="O9:Q9"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:F8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="O7:Q8"/>
-    <mergeCell ref="R7:W7"/>
-    <mergeCell ref="AX7:BB8"/>
-    <mergeCell ref="BH7:BN8"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="BC7:BG8"/>
-    <mergeCell ref="BC9:BG9"/>
-    <mergeCell ref="BC10:BG10"/>
-    <mergeCell ref="BC11:BG11"/>
-    <mergeCell ref="BC13:BG13"/>
-    <mergeCell ref="AX11:BB11"/>
-    <mergeCell ref="AX13:BB13"/>
-    <mergeCell ref="AL13:AW13"/>
-    <mergeCell ref="BH9:BN9"/>
-    <mergeCell ref="AX9:BB9"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AL7:AW8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AL11:AW11"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AL9:AW9"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AL10:AW10"/>
-    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="AL12:AW12"/>
+    <mergeCell ref="AX12:BB12"/>
+    <mergeCell ref="BC12:BG12"/>
+    <mergeCell ref="BH12:BN12"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="1">
@@ -15440,157 +15501,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="169" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="112" t="str">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="100" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
     </row>
     <row r="2" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="112" t="str">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="100" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+        <v>44903</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
     </row>
     <row r="3" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="112" t="str">
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
@@ -15603,49 +15664,49 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="265" t="s">
+      <c r="C8" s="270"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="270"/>
+      <c r="F8" s="270"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="270"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="266"/>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="266"/>
-      <c r="S8" s="266"/>
-      <c r="T8" s="266"/>
-      <c r="U8" s="266"/>
-      <c r="V8" s="266"/>
-      <c r="W8" s="266"/>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="216" t="s">
+      <c r="K8" s="270"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="270"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
+      <c r="T8" s="270"/>
+      <c r="U8" s="270"/>
+      <c r="V8" s="270"/>
+      <c r="W8" s="270"/>
+      <c r="X8" s="271"/>
+      <c r="Y8" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="216"/>
-      <c r="AA8" s="216"/>
-      <c r="AB8" s="216"/>
-      <c r="AC8" s="216"/>
-      <c r="AD8" s="216"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="216"/>
-      <c r="AG8" s="216"/>
-      <c r="AH8" s="216"/>
-      <c r="AI8" s="216"/>
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="252"/>
+      <c r="AE8" s="252"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="252"/>
+      <c r="AH8" s="252"/>
+      <c r="AI8" s="252"/>
       <c r="BM8" s="22"/>
       <c r="BN8" s="22"/>
       <c r="BO8" s="22"/>
@@ -15654,45 +15715,45 @@
       <c r="BR8" s="22"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="188"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="269"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="269"/>
-      <c r="Q9" s="269"/>
-      <c r="R9" s="269"/>
-      <c r="S9" s="269"/>
-      <c r="T9" s="269"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="270"/>
-      <c r="Y9" s="216" t="s">
+      <c r="A9" s="192"/>
+      <c r="B9" s="272"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="273"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="273"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="273"/>
+      <c r="T9" s="273"/>
+      <c r="U9" s="273"/>
+      <c r="V9" s="273"/>
+      <c r="W9" s="273"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="216"/>
-      <c r="AA9" s="216"/>
-      <c r="AB9" s="216"/>
-      <c r="AC9" s="216" t="s">
+      <c r="Z9" s="252"/>
+      <c r="AA9" s="252"/>
+      <c r="AB9" s="252"/>
+      <c r="AC9" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="216"/>
-      <c r="AE9" s="216"/>
-      <c r="AF9" s="216"/>
-      <c r="AG9" s="216"/>
-      <c r="AH9" s="216"/>
-      <c r="AI9" s="216"/>
+      <c r="AD9" s="252"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="252"/>
+      <c r="AG9" s="252"/>
+      <c r="AH9" s="252"/>
+      <c r="AI9" s="252"/>
       <c r="AJ9" s="22"/>
       <c r="AK9" s="22"/>
       <c r="AL9" s="22"/>
@@ -15733,44 +15794,44 @@
       <c r="A10" s="57">
         <v>1</v>
       </c>
-      <c r="B10" s="262" t="s">
+      <c r="B10" s="268" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="262" t="s">
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="268" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="262"/>
-      <c r="L10" s="262"/>
-      <c r="M10" s="262"/>
-      <c r="N10" s="262"/>
-      <c r="O10" s="262"/>
-      <c r="P10" s="262"/>
-      <c r="Q10" s="262"/>
-      <c r="R10" s="262"/>
-      <c r="S10" s="262"/>
-      <c r="T10" s="262"/>
-      <c r="U10" s="262"/>
-      <c r="V10" s="262"/>
-      <c r="W10" s="262"/>
-      <c r="X10" s="262"/>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="260"/>
-      <c r="AD10" s="260"/>
-      <c r="AE10" s="260"/>
-      <c r="AF10" s="260"/>
-      <c r="AG10" s="260"/>
-      <c r="AH10" s="260"/>
-      <c r="AI10" s="260"/>
+      <c r="K10" s="268"/>
+      <c r="L10" s="268"/>
+      <c r="M10" s="268"/>
+      <c r="N10" s="268"/>
+      <c r="O10" s="268"/>
+      <c r="P10" s="268"/>
+      <c r="Q10" s="268"/>
+      <c r="R10" s="268"/>
+      <c r="S10" s="268"/>
+      <c r="T10" s="268"/>
+      <c r="U10" s="268"/>
+      <c r="V10" s="268"/>
+      <c r="W10" s="268"/>
+      <c r="X10" s="268"/>
+      <c r="Y10" s="267"/>
+      <c r="Z10" s="267"/>
+      <c r="AA10" s="267"/>
+      <c r="AB10" s="267"/>
+      <c r="AC10" s="267"/>
+      <c r="AD10" s="267"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="267"/>
+      <c r="AG10" s="267"/>
+      <c r="AH10" s="267"/>
+      <c r="AI10" s="267"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
@@ -15811,44 +15872,44 @@
       <c r="A11" s="57">
         <v>2</v>
       </c>
-      <c r="B11" s="261" t="s">
+      <c r="B11" s="275" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="262"/>
-      <c r="G11" s="262"/>
-      <c r="H11" s="262"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="262" t="s">
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="K11" s="262"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="262"/>
-      <c r="N11" s="262"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="262"/>
-      <c r="T11" s="262"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="262"/>
-      <c r="W11" s="262"/>
-      <c r="X11" s="262"/>
-      <c r="Y11" s="260"/>
-      <c r="Z11" s="260"/>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
-      <c r="AC11" s="260"/>
-      <c r="AD11" s="260"/>
-      <c r="AE11" s="260"/>
-      <c r="AF11" s="260"/>
-      <c r="AG11" s="260"/>
-      <c r="AH11" s="260"/>
-      <c r="AI11" s="260"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="267"/>
+      <c r="Z11" s="267"/>
+      <c r="AA11" s="267"/>
+      <c r="AB11" s="267"/>
+      <c r="AC11" s="267"/>
+      <c r="AD11" s="267"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="267"/>
+      <c r="AG11" s="267"/>
+      <c r="AH11" s="267"/>
+      <c r="AI11" s="267"/>
       <c r="AJ11" s="22"/>
       <c r="AK11" s="22"/>
       <c r="AL11" s="22"/>
@@ -15889,44 +15950,44 @@
       <c r="A12" s="57">
         <v>3</v>
       </c>
-      <c r="B12" s="263" t="s">
+      <c r="B12" s="276" t="s">
         <v>177</v>
       </c>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="262" t="s">
+      <c r="C12" s="268"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="268" t="s">
         <v>65</v>
       </c>
-      <c r="K12" s="262"/>
-      <c r="L12" s="262"/>
-      <c r="M12" s="262"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="262"/>
-      <c r="T12" s="262"/>
-      <c r="U12" s="262"/>
-      <c r="V12" s="262"/>
-      <c r="W12" s="262"/>
-      <c r="X12" s="262"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="260"/>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
-      <c r="AI12" s="260"/>
+      <c r="K12" s="268"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="268"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="268"/>
+      <c r="X12" s="268"/>
+      <c r="Y12" s="267"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="267"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="267"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="267"/>
+      <c r="AI12" s="267"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
       <c r="AL12" s="22"/>
@@ -15967,44 +16028,44 @@
       <c r="A13" s="57">
         <v>4</v>
       </c>
-      <c r="B13" s="144" t="s">
+      <c r="B13" s="101" t="s">
         <v>166</v>
       </c>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="262" t="s">
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="268" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="262"/>
-      <c r="L13" s="262"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="262"/>
-      <c r="O13" s="262"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="262"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="262"/>
-      <c r="T13" s="262"/>
-      <c r="U13" s="262"/>
-      <c r="V13" s="262"/>
-      <c r="W13" s="262"/>
-      <c r="X13" s="262"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
-      <c r="AI13" s="260"/>
+      <c r="K13" s="268"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="268"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="268"/>
+      <c r="S13" s="268"/>
+      <c r="T13" s="268"/>
+      <c r="U13" s="268"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="268"/>
+      <c r="X13" s="268"/>
+      <c r="Y13" s="267"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
+      <c r="AB13" s="267"/>
+      <c r="AC13" s="267"/>
+      <c r="AD13" s="267"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="267"/>
+      <c r="AG13" s="267"/>
+      <c r="AH13" s="267"/>
+      <c r="AI13" s="267"/>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
@@ -16045,44 +16106,44 @@
       <c r="A14" s="57">
         <v>5</v>
       </c>
-      <c r="B14" s="263" t="s">
+      <c r="B14" s="276" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="262"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="262"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="261" t="s">
+      <c r="C14" s="268"/>
+      <c r="D14" s="268"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="275" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="262"/>
-      <c r="L14" s="262"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="262"/>
-      <c r="T14" s="262"/>
-      <c r="U14" s="262"/>
-      <c r="V14" s="262"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="260"/>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
-      <c r="AD14" s="260"/>
-      <c r="AE14" s="260"/>
-      <c r="AF14" s="260"/>
-      <c r="AG14" s="260"/>
-      <c r="AH14" s="260"/>
-      <c r="AI14" s="260"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="268"/>
+      <c r="S14" s="268"/>
+      <c r="T14" s="268"/>
+      <c r="U14" s="268"/>
+      <c r="V14" s="268"/>
+      <c r="W14" s="268"/>
+      <c r="X14" s="268"/>
+      <c r="Y14" s="267"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="267"/>
+      <c r="AB14" s="267"/>
+      <c r="AC14" s="267"/>
+      <c r="AD14" s="267"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="267"/>
+      <c r="AG14" s="267"/>
+      <c r="AH14" s="267"/>
+      <c r="AI14" s="267"/>
       <c r="AJ14" s="22"/>
       <c r="AK14" s="22"/>
       <c r="AL14" s="22"/>
@@ -16123,44 +16184,44 @@
       <c r="A15" s="57">
         <v>6</v>
       </c>
-      <c r="B15" s="263" t="s">
+      <c r="B15" s="276" t="s">
         <v>167</v>
       </c>
-      <c r="C15" s="262"/>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="261" t="s">
+      <c r="C15" s="268"/>
+      <c r="D15" s="268"/>
+      <c r="E15" s="268"/>
+      <c r="F15" s="268"/>
+      <c r="G15" s="268"/>
+      <c r="H15" s="268"/>
+      <c r="I15" s="268"/>
+      <c r="J15" s="275" t="s">
         <v>173</v>
       </c>
-      <c r="K15" s="262"/>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
-      <c r="P15" s="262"/>
-      <c r="Q15" s="262"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="262"/>
-      <c r="T15" s="262"/>
-      <c r="U15" s="262"/>
-      <c r="V15" s="262"/>
-      <c r="W15" s="262"/>
-      <c r="X15" s="262"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="260"/>
-      <c r="AG15" s="260"/>
-      <c r="AH15" s="260"/>
-      <c r="AI15" s="260"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="268"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="268"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="268"/>
+      <c r="S15" s="268"/>
+      <c r="T15" s="268"/>
+      <c r="U15" s="268"/>
+      <c r="V15" s="268"/>
+      <c r="W15" s="268"/>
+      <c r="X15" s="268"/>
+      <c r="Y15" s="267"/>
+      <c r="Z15" s="267"/>
+      <c r="AA15" s="267"/>
+      <c r="AB15" s="267"/>
+      <c r="AC15" s="267"/>
+      <c r="AD15" s="267"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="267"/>
+      <c r="AG15" s="267"/>
+      <c r="AH15" s="267"/>
+      <c r="AI15" s="267"/>
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
       <c r="AL15" s="22"/>
@@ -16201,44 +16262,44 @@
       <c r="A16" s="57">
         <v>7</v>
       </c>
-      <c r="B16" s="261" t="s">
+      <c r="B16" s="275" t="s">
         <v>162</v>
       </c>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="262"/>
-      <c r="J16" s="263" t="s">
+      <c r="C16" s="268"/>
+      <c r="D16" s="268"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="276" t="s">
         <v>172</v>
       </c>
-      <c r="K16" s="264"/>
-      <c r="L16" s="264"/>
-      <c r="M16" s="264"/>
-      <c r="N16" s="264"/>
-      <c r="O16" s="264"/>
-      <c r="P16" s="264"/>
-      <c r="Q16" s="264"/>
-      <c r="R16" s="264"/>
-      <c r="S16" s="264"/>
-      <c r="T16" s="264"/>
-      <c r="U16" s="264"/>
-      <c r="V16" s="264"/>
-      <c r="W16" s="264"/>
-      <c r="X16" s="264"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="260"/>
-      <c r="AG16" s="260"/>
-      <c r="AH16" s="260"/>
-      <c r="AI16" s="260"/>
+      <c r="K16" s="277"/>
+      <c r="L16" s="277"/>
+      <c r="M16" s="277"/>
+      <c r="N16" s="277"/>
+      <c r="O16" s="277"/>
+      <c r="P16" s="277"/>
+      <c r="Q16" s="277"/>
+      <c r="R16" s="277"/>
+      <c r="S16" s="277"/>
+      <c r="T16" s="277"/>
+      <c r="U16" s="277"/>
+      <c r="V16" s="277"/>
+      <c r="W16" s="277"/>
+      <c r="X16" s="277"/>
+      <c r="Y16" s="267"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="267"/>
+      <c r="AB16" s="267"/>
+      <c r="AC16" s="267"/>
+      <c r="AD16" s="267"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="267"/>
+      <c r="AG16" s="267"/>
+      <c r="AH16" s="267"/>
+      <c r="AI16" s="267"/>
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
@@ -16279,44 +16340,44 @@
       <c r="A17" s="57">
         <v>8</v>
       </c>
-      <c r="B17" s="261" t="s">
+      <c r="B17" s="275" t="s">
         <v>171</v>
       </c>
-      <c r="C17" s="262"/>
-      <c r="D17" s="262"/>
-      <c r="E17" s="262"/>
-      <c r="F17" s="262"/>
-      <c r="G17" s="262"/>
-      <c r="H17" s="262"/>
-      <c r="I17" s="262"/>
-      <c r="J17" s="264" t="s">
+      <c r="C17" s="268"/>
+      <c r="D17" s="268"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="268"/>
+      <c r="G17" s="268"/>
+      <c r="H17" s="268"/>
+      <c r="I17" s="268"/>
+      <c r="J17" s="277" t="s">
         <v>67</v>
       </c>
-      <c r="K17" s="264"/>
-      <c r="L17" s="264"/>
-      <c r="M17" s="264"/>
-      <c r="N17" s="264"/>
-      <c r="O17" s="264"/>
-      <c r="P17" s="264"/>
-      <c r="Q17" s="264"/>
-      <c r="R17" s="264"/>
-      <c r="S17" s="264"/>
-      <c r="T17" s="264"/>
-      <c r="U17" s="264"/>
-      <c r="V17" s="264"/>
-      <c r="W17" s="264"/>
-      <c r="X17" s="264"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="260"/>
-      <c r="AG17" s="260"/>
-      <c r="AH17" s="260"/>
-      <c r="AI17" s="260"/>
+      <c r="K17" s="277"/>
+      <c r="L17" s="277"/>
+      <c r="M17" s="277"/>
+      <c r="N17" s="277"/>
+      <c r="O17" s="277"/>
+      <c r="P17" s="277"/>
+      <c r="Q17" s="277"/>
+      <c r="R17" s="277"/>
+      <c r="S17" s="277"/>
+      <c r="T17" s="277"/>
+      <c r="U17" s="277"/>
+      <c r="V17" s="277"/>
+      <c r="W17" s="277"/>
+      <c r="X17" s="277"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="267"/>
+      <c r="AG17" s="267"/>
+      <c r="AH17" s="267"/>
+      <c r="AI17" s="267"/>
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
@@ -16357,44 +16418,44 @@
       <c r="A18" s="57">
         <v>9</v>
       </c>
-      <c r="B18" s="261" t="s">
+      <c r="B18" s="275" t="s">
         <v>170</v>
       </c>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="263" t="s">
+      <c r="C18" s="268"/>
+      <c r="D18" s="268"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="268"/>
+      <c r="J18" s="276" t="s">
         <v>168</v>
       </c>
-      <c r="K18" s="264"/>
-      <c r="L18" s="264"/>
-      <c r="M18" s="264"/>
-      <c r="N18" s="264"/>
-      <c r="O18" s="264"/>
-      <c r="P18" s="264"/>
-      <c r="Q18" s="264"/>
-      <c r="R18" s="264"/>
-      <c r="S18" s="264"/>
-      <c r="T18" s="264"/>
-      <c r="U18" s="264"/>
-      <c r="V18" s="264"/>
-      <c r="W18" s="264"/>
-      <c r="X18" s="264"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="260"/>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="260"/>
-      <c r="AI18" s="260"/>
+      <c r="K18" s="277"/>
+      <c r="L18" s="277"/>
+      <c r="M18" s="277"/>
+      <c r="N18" s="277"/>
+      <c r="O18" s="277"/>
+      <c r="P18" s="277"/>
+      <c r="Q18" s="277"/>
+      <c r="R18" s="277"/>
+      <c r="S18" s="277"/>
+      <c r="T18" s="277"/>
+      <c r="U18" s="277"/>
+      <c r="V18" s="277"/>
+      <c r="W18" s="277"/>
+      <c r="X18" s="277"/>
+      <c r="Y18" s="267"/>
+      <c r="Z18" s="267"/>
+      <c r="AA18" s="267"/>
+      <c r="AB18" s="267"/>
+      <c r="AC18" s="267"/>
+      <c r="AD18" s="267"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="267"/>
+      <c r="AG18" s="267"/>
+      <c r="AH18" s="267"/>
+      <c r="AI18" s="267"/>
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
@@ -16993,49 +17054,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="Y8:AI8"/>
-    <mergeCell ref="AC9:AI9"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="B10:I10"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="Y9:AB9"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B11:I11"/>
-    <mergeCell ref="J11:X11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
     <mergeCell ref="AC16:AI16"/>
     <mergeCell ref="J14:X14"/>
     <mergeCell ref="AC18:AI18"/>
@@ -17052,6 +17070,49 @@
     <mergeCell ref="Y15:AB15"/>
     <mergeCell ref="Y16:AB16"/>
     <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="J11:X11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="Y9:AB9"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="Y8:AI8"/>
+    <mergeCell ref="AC9:AI9"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="Y10:AB10"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -17081,157 +17142,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="169" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="112" t="str">
+      <c r="B1" s="180"/>
+      <c r="C1" s="180"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="103" t="s">
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="105"/>
-      <c r="S1" s="177" t="str">
+      <c r="P1" s="151"/>
+      <c r="Q1" s="151"/>
+      <c r="R1" s="152"/>
+      <c r="S1" s="171" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>ドメイン定義書</v>
       </c>
-      <c r="T1" s="178"/>
-      <c r="U1" s="178"/>
-      <c r="V1" s="178"/>
-      <c r="W1" s="178"/>
-      <c r="X1" s="178"/>
-      <c r="Y1" s="178"/>
-      <c r="Z1" s="179"/>
-      <c r="AA1" s="100" t="s">
+      <c r="T1" s="172"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
+      <c r="W1" s="172"/>
+      <c r="X1" s="172"/>
+      <c r="Y1" s="172"/>
+      <c r="Z1" s="173"/>
+      <c r="AA1" s="104" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="102"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="105"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="160"/>
-      <c r="AE1" s="160"/>
-      <c r="AF1" s="161"/>
-      <c r="AG1" s="174">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="175"/>
-      <c r="AI1" s="176"/>
+      <c r="AH1" s="167"/>
+      <c r="AI1" s="168"/>
     </row>
     <row r="2" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="112" t="str">
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="113"/>
-      <c r="G2" s="113"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="180"/>
-      <c r="T2" s="181"/>
-      <c r="U2" s="181"/>
-      <c r="V2" s="181"/>
-      <c r="W2" s="181"/>
-      <c r="X2" s="181"/>
-      <c r="Y2" s="181"/>
-      <c r="Z2" s="182"/>
-      <c r="AA2" s="100" t="s">
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="153"/>
+      <c r="P2" s="154"/>
+      <c r="Q2" s="154"/>
+      <c r="R2" s="155"/>
+      <c r="S2" s="174"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="176"/>
+      <c r="AA2" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="102"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="105"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="160"/>
-      <c r="AE2" s="160"/>
-      <c r="AF2" s="161"/>
-      <c r="AG2" s="174">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="166">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44690</v>
-      </c>
-      <c r="AH2" s="175"/>
-      <c r="AI2" s="176"/>
+        <v>44903</v>
+      </c>
+      <c r="AH2" s="167"/>
+      <c r="AI2" s="168"/>
     </row>
     <row r="3" spans="1:70" s="19" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="104" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="112" t="str">
+      <c r="B3" s="149"/>
+      <c r="C3" s="149"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="110"/>
-      <c r="Q3" s="110"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="183"/>
-      <c r="T3" s="184"/>
-      <c r="U3" s="184"/>
-      <c r="V3" s="184"/>
-      <c r="W3" s="184"/>
-      <c r="X3" s="184"/>
-      <c r="Y3" s="184"/>
-      <c r="Z3" s="185"/>
-      <c r="AA3" s="100"/>
-      <c r="AB3" s="102"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="156"/>
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157"/>
+      <c r="R3" s="158"/>
+      <c r="S3" s="177"/>
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="179"/>
+      <c r="AA3" s="104"/>
+      <c r="AB3" s="105"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="160"/>
-      <c r="AE3" s="160"/>
-      <c r="AF3" s="161"/>
-      <c r="AG3" s="174" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="166" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="175"/>
-      <c r="AI3" s="176"/>
+      <c r="AH3" s="167"/>
+      <c r="AI3" s="168"/>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
@@ -17244,49 +17305,49 @@
       </c>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A8" s="188" t="s">
+      <c r="A8" s="192" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="265" t="s">
+      <c r="B8" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="266"/>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="267"/>
-      <c r="J8" s="265" t="s">
+      <c r="C8" s="270"/>
+      <c r="D8" s="270"/>
+      <c r="E8" s="270"/>
+      <c r="F8" s="270"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="270"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="K8" s="266"/>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="266"/>
-      <c r="P8" s="266"/>
-      <c r="Q8" s="266"/>
-      <c r="R8" s="266"/>
-      <c r="S8" s="266"/>
-      <c r="T8" s="266"/>
-      <c r="U8" s="266"/>
-      <c r="V8" s="266"/>
-      <c r="W8" s="266"/>
-      <c r="X8" s="267"/>
-      <c r="Y8" s="216" t="s">
+      <c r="K8" s="270"/>
+      <c r="L8" s="270"/>
+      <c r="M8" s="270"/>
+      <c r="N8" s="270"/>
+      <c r="O8" s="270"/>
+      <c r="P8" s="270"/>
+      <c r="Q8" s="270"/>
+      <c r="R8" s="270"/>
+      <c r="S8" s="270"/>
+      <c r="T8" s="270"/>
+      <c r="U8" s="270"/>
+      <c r="V8" s="270"/>
+      <c r="W8" s="270"/>
+      <c r="X8" s="271"/>
+      <c r="Y8" s="252" t="s">
         <v>14</v>
       </c>
-      <c r="Z8" s="216"/>
-      <c r="AA8" s="216"/>
-      <c r="AB8" s="216"/>
-      <c r="AC8" s="216"/>
-      <c r="AD8" s="216"/>
-      <c r="AE8" s="216"/>
-      <c r="AF8" s="216"/>
-      <c r="AG8" s="216"/>
-      <c r="AH8" s="216"/>
-      <c r="AI8" s="216"/>
+      <c r="Z8" s="252"/>
+      <c r="AA8" s="252"/>
+      <c r="AB8" s="252"/>
+      <c r="AC8" s="252"/>
+      <c r="AD8" s="252"/>
+      <c r="AE8" s="252"/>
+      <c r="AF8" s="252"/>
+      <c r="AG8" s="252"/>
+      <c r="AH8" s="252"/>
+      <c r="AI8" s="252"/>
       <c r="AJ8" s="22"/>
       <c r="AK8" s="22"/>
       <c r="AL8" s="22"/>
@@ -17324,45 +17385,45 @@
       <c r="BR8" s="22"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.15">
-      <c r="A9" s="188"/>
-      <c r="B9" s="268"/>
-      <c r="C9" s="269"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="268"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-      <c r="M9" s="269"/>
-      <c r="N9" s="269"/>
-      <c r="O9" s="269"/>
-      <c r="P9" s="269"/>
-      <c r="Q9" s="269"/>
-      <c r="R9" s="269"/>
-      <c r="S9" s="269"/>
-      <c r="T9" s="269"/>
-      <c r="U9" s="269"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="270"/>
-      <c r="Y9" s="216" t="s">
+      <c r="A9" s="192"/>
+      <c r="B9" s="272"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
+      <c r="G9" s="273"/>
+      <c r="H9" s="273"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="273"/>
+      <c r="M9" s="273"/>
+      <c r="N9" s="273"/>
+      <c r="O9" s="273"/>
+      <c r="P9" s="273"/>
+      <c r="Q9" s="273"/>
+      <c r="R9" s="273"/>
+      <c r="S9" s="273"/>
+      <c r="T9" s="273"/>
+      <c r="U9" s="273"/>
+      <c r="V9" s="273"/>
+      <c r="W9" s="273"/>
+      <c r="X9" s="274"/>
+      <c r="Y9" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="Z9" s="216"/>
-      <c r="AA9" s="216"/>
-      <c r="AB9" s="216"/>
-      <c r="AC9" s="216" t="s">
+      <c r="Z9" s="252"/>
+      <c r="AA9" s="252"/>
+      <c r="AB9" s="252"/>
+      <c r="AC9" s="252" t="s">
         <v>16</v>
       </c>
-      <c r="AD9" s="216"/>
-      <c r="AE9" s="216"/>
-      <c r="AF9" s="216"/>
-      <c r="AG9" s="216"/>
-      <c r="AH9" s="216"/>
-      <c r="AI9" s="216"/>
+      <c r="AD9" s="252"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="252"/>
+      <c r="AG9" s="252"/>
+      <c r="AH9" s="252"/>
+      <c r="AI9" s="252"/>
       <c r="AJ9" s="22"/>
       <c r="AK9" s="22"/>
       <c r="AL9" s="22"/>
@@ -17401,40 +17462,40 @@
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10" s="57"/>
-      <c r="B10" s="261"/>
-      <c r="C10" s="262"/>
-      <c r="D10" s="262"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="262"/>
-      <c r="H10" s="262"/>
-      <c r="I10" s="262"/>
-      <c r="J10" s="263"/>
-      <c r="K10" s="264"/>
-      <c r="L10" s="264"/>
-      <c r="M10" s="264"/>
-      <c r="N10" s="264"/>
-      <c r="O10" s="264"/>
-      <c r="P10" s="264"/>
-      <c r="Q10" s="264"/>
-      <c r="R10" s="264"/>
-      <c r="S10" s="264"/>
-      <c r="T10" s="264"/>
-      <c r="U10" s="264"/>
-      <c r="V10" s="264"/>
-      <c r="W10" s="264"/>
-      <c r="X10" s="264"/>
-      <c r="Y10" s="260"/>
-      <c r="Z10" s="260"/>
-      <c r="AA10" s="260"/>
-      <c r="AB10" s="260"/>
-      <c r="AC10" s="260"/>
-      <c r="AD10" s="260"/>
-      <c r="AE10" s="260"/>
-      <c r="AF10" s="260"/>
-      <c r="AG10" s="260"/>
-      <c r="AH10" s="260"/>
-      <c r="AI10" s="260"/>
+      <c r="B10" s="275"/>
+      <c r="C10" s="268"/>
+      <c r="D10" s="268"/>
+      <c r="E10" s="268"/>
+      <c r="F10" s="268"/>
+      <c r="G10" s="268"/>
+      <c r="H10" s="268"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="276"/>
+      <c r="K10" s="277"/>
+      <c r="L10" s="277"/>
+      <c r="M10" s="277"/>
+      <c r="N10" s="277"/>
+      <c r="O10" s="277"/>
+      <c r="P10" s="277"/>
+      <c r="Q10" s="277"/>
+      <c r="R10" s="277"/>
+      <c r="S10" s="277"/>
+      <c r="T10" s="277"/>
+      <c r="U10" s="277"/>
+      <c r="V10" s="277"/>
+      <c r="W10" s="277"/>
+      <c r="X10" s="277"/>
+      <c r="Y10" s="267"/>
+      <c r="Z10" s="267"/>
+      <c r="AA10" s="267"/>
+      <c r="AB10" s="267"/>
+      <c r="AC10" s="267"/>
+      <c r="AD10" s="267"/>
+      <c r="AE10" s="267"/>
+      <c r="AF10" s="267"/>
+      <c r="AG10" s="267"/>
+      <c r="AH10" s="267"/>
+      <c r="AI10" s="267"/>
       <c r="AJ10" s="22"/>
       <c r="AK10" s="22"/>
       <c r="AL10" s="22"/>
@@ -17473,40 +17534,40 @@
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A11" s="57"/>
-      <c r="B11" s="262"/>
-      <c r="C11" s="262"/>
-      <c r="D11" s="262"/>
-      <c r="E11" s="262"/>
-      <c r="F11" s="262"/>
-      <c r="G11" s="262"/>
-      <c r="H11" s="262"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="262"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="262"/>
-      <c r="N11" s="262"/>
-      <c r="O11" s="262"/>
-      <c r="P11" s="262"/>
-      <c r="Q11" s="262"/>
-      <c r="R11" s="262"/>
-      <c r="S11" s="262"/>
-      <c r="T11" s="262"/>
-      <c r="U11" s="262"/>
-      <c r="V11" s="262"/>
-      <c r="W11" s="262"/>
-      <c r="X11" s="262"/>
-      <c r="Y11" s="260"/>
-      <c r="Z11" s="260"/>
-      <c r="AA11" s="260"/>
-      <c r="AB11" s="260"/>
-      <c r="AC11" s="260"/>
-      <c r="AD11" s="260"/>
-      <c r="AE11" s="260"/>
-      <c r="AF11" s="260"/>
-      <c r="AG11" s="260"/>
-      <c r="AH11" s="260"/>
-      <c r="AI11" s="260"/>
+      <c r="B11" s="268"/>
+      <c r="C11" s="268"/>
+      <c r="D11" s="268"/>
+      <c r="E11" s="268"/>
+      <c r="F11" s="268"/>
+      <c r="G11" s="268"/>
+      <c r="H11" s="268"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="268"/>
+      <c r="L11" s="268"/>
+      <c r="M11" s="268"/>
+      <c r="N11" s="268"/>
+      <c r="O11" s="268"/>
+      <c r="P11" s="268"/>
+      <c r="Q11" s="268"/>
+      <c r="R11" s="268"/>
+      <c r="S11" s="268"/>
+      <c r="T11" s="268"/>
+      <c r="U11" s="268"/>
+      <c r="V11" s="268"/>
+      <c r="W11" s="268"/>
+      <c r="X11" s="268"/>
+      <c r="Y11" s="267"/>
+      <c r="Z11" s="267"/>
+      <c r="AA11" s="267"/>
+      <c r="AB11" s="267"/>
+      <c r="AC11" s="267"/>
+      <c r="AD11" s="267"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="267"/>
+      <c r="AG11" s="267"/>
+      <c r="AH11" s="267"/>
+      <c r="AI11" s="267"/>
       <c r="AJ11" s="22"/>
       <c r="AK11" s="22"/>
       <c r="AL11" s="22"/>
@@ -17545,40 +17606,40 @@
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A12" s="57"/>
-      <c r="B12" s="262"/>
-      <c r="C12" s="262"/>
-      <c r="D12" s="262"/>
-      <c r="E12" s="262"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="262"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="262"/>
-      <c r="L12" s="262"/>
-      <c r="M12" s="262"/>
-      <c r="N12" s="262"/>
-      <c r="O12" s="262"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="262"/>
-      <c r="R12" s="262"/>
-      <c r="S12" s="262"/>
-      <c r="T12" s="262"/>
-      <c r="U12" s="262"/>
-      <c r="V12" s="262"/>
-      <c r="W12" s="262"/>
-      <c r="X12" s="262"/>
-      <c r="Y12" s="260"/>
-      <c r="Z12" s="260"/>
-      <c r="AA12" s="260"/>
-      <c r="AB12" s="260"/>
-      <c r="AC12" s="260"/>
-      <c r="AD12" s="260"/>
-      <c r="AE12" s="260"/>
-      <c r="AF12" s="260"/>
-      <c r="AG12" s="260"/>
-      <c r="AH12" s="260"/>
-      <c r="AI12" s="260"/>
+      <c r="B12" s="268"/>
+      <c r="C12" s="268"/>
+      <c r="D12" s="268"/>
+      <c r="E12" s="268"/>
+      <c r="F12" s="268"/>
+      <c r="G12" s="268"/>
+      <c r="H12" s="268"/>
+      <c r="I12" s="268"/>
+      <c r="J12" s="268"/>
+      <c r="K12" s="268"/>
+      <c r="L12" s="268"/>
+      <c r="M12" s="268"/>
+      <c r="N12" s="268"/>
+      <c r="O12" s="268"/>
+      <c r="P12" s="268"/>
+      <c r="Q12" s="268"/>
+      <c r="R12" s="268"/>
+      <c r="S12" s="268"/>
+      <c r="T12" s="268"/>
+      <c r="U12" s="268"/>
+      <c r="V12" s="268"/>
+      <c r="W12" s="268"/>
+      <c r="X12" s="268"/>
+      <c r="Y12" s="267"/>
+      <c r="Z12" s="267"/>
+      <c r="AA12" s="267"/>
+      <c r="AB12" s="267"/>
+      <c r="AC12" s="267"/>
+      <c r="AD12" s="267"/>
+      <c r="AE12" s="267"/>
+      <c r="AF12" s="267"/>
+      <c r="AG12" s="267"/>
+      <c r="AH12" s="267"/>
+      <c r="AI12" s="267"/>
       <c r="AJ12" s="22"/>
       <c r="AK12" s="22"/>
       <c r="AL12" s="22"/>
@@ -17617,40 +17678,40 @@
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A13" s="57"/>
-      <c r="B13" s="262"/>
-      <c r="C13" s="262"/>
-      <c r="D13" s="262"/>
-      <c r="E13" s="262"/>
-      <c r="F13" s="262"/>
-      <c r="G13" s="262"/>
-      <c r="H13" s="262"/>
-      <c r="I13" s="262"/>
-      <c r="J13" s="262"/>
-      <c r="K13" s="262"/>
-      <c r="L13" s="262"/>
-      <c r="M13" s="262"/>
-      <c r="N13" s="262"/>
-      <c r="O13" s="262"/>
-      <c r="P13" s="262"/>
-      <c r="Q13" s="262"/>
-      <c r="R13" s="262"/>
-      <c r="S13" s="262"/>
-      <c r="T13" s="262"/>
-      <c r="U13" s="262"/>
-      <c r="V13" s="262"/>
-      <c r="W13" s="262"/>
-      <c r="X13" s="262"/>
-      <c r="Y13" s="260"/>
-      <c r="Z13" s="260"/>
-      <c r="AA13" s="260"/>
-      <c r="AB13" s="260"/>
-      <c r="AC13" s="260"/>
-      <c r="AD13" s="260"/>
-      <c r="AE13" s="260"/>
-      <c r="AF13" s="260"/>
-      <c r="AG13" s="260"/>
-      <c r="AH13" s="260"/>
-      <c r="AI13" s="260"/>
+      <c r="B13" s="268"/>
+      <c r="C13" s="268"/>
+      <c r="D13" s="268"/>
+      <c r="E13" s="268"/>
+      <c r="F13" s="268"/>
+      <c r="G13" s="268"/>
+      <c r="H13" s="268"/>
+      <c r="I13" s="268"/>
+      <c r="J13" s="268"/>
+      <c r="K13" s="268"/>
+      <c r="L13" s="268"/>
+      <c r="M13" s="268"/>
+      <c r="N13" s="268"/>
+      <c r="O13" s="268"/>
+      <c r="P13" s="268"/>
+      <c r="Q13" s="268"/>
+      <c r="R13" s="268"/>
+      <c r="S13" s="268"/>
+      <c r="T13" s="268"/>
+      <c r="U13" s="268"/>
+      <c r="V13" s="268"/>
+      <c r="W13" s="268"/>
+      <c r="X13" s="268"/>
+      <c r="Y13" s="267"/>
+      <c r="Z13" s="267"/>
+      <c r="AA13" s="267"/>
+      <c r="AB13" s="267"/>
+      <c r="AC13" s="267"/>
+      <c r="AD13" s="267"/>
+      <c r="AE13" s="267"/>
+      <c r="AF13" s="267"/>
+      <c r="AG13" s="267"/>
+      <c r="AH13" s="267"/>
+      <c r="AI13" s="267"/>
       <c r="AJ13" s="22"/>
       <c r="AK13" s="22"/>
       <c r="AL13" s="22"/>
@@ -17689,40 +17750,40 @@
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A14" s="57"/>
-      <c r="B14" s="264"/>
-      <c r="C14" s="262"/>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="262"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="262"/>
-      <c r="K14" s="262"/>
-      <c r="L14" s="262"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
-      <c r="P14" s="262"/>
-      <c r="Q14" s="262"/>
-      <c r="R14" s="262"/>
-      <c r="S14" s="262"/>
-      <c r="T14" s="262"/>
-      <c r="U14" s="262"/>
-      <c r="V14" s="262"/>
-      <c r="W14" s="262"/>
-      <c r="X14" s="262"/>
-      <c r="Y14" s="260"/>
-      <c r="Z14" s="260"/>
-      <c r="AA14" s="260"/>
-      <c r="AB14" s="260"/>
-      <c r="AC14" s="260"/>
-      <c r="AD14" s="260"/>
-      <c r="AE14" s="260"/>
-      <c r="AF14" s="260"/>
-      <c r="AG14" s="260"/>
-      <c r="AH14" s="260"/>
-      <c r="AI14" s="260"/>
+      <c r="B14" s="277"/>
+      <c r="C14" s="268"/>
+      <c r="D14" s="268"/>
+      <c r="E14" s="268"/>
+      <c r="F14" s="268"/>
+      <c r="G14" s="268"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="268"/>
+      <c r="O14" s="268"/>
+      <c r="P14" s="268"/>
+      <c r="Q14" s="268"/>
+      <c r="R14" s="268"/>
+      <c r="S14" s="268"/>
+      <c r="T14" s="268"/>
+      <c r="U14" s="268"/>
+      <c r="V14" s="268"/>
+      <c r="W14" s="268"/>
+      <c r="X14" s="268"/>
+      <c r="Y14" s="267"/>
+      <c r="Z14" s="267"/>
+      <c r="AA14" s="267"/>
+      <c r="AB14" s="267"/>
+      <c r="AC14" s="267"/>
+      <c r="AD14" s="267"/>
+      <c r="AE14" s="267"/>
+      <c r="AF14" s="267"/>
+      <c r="AG14" s="267"/>
+      <c r="AH14" s="267"/>
+      <c r="AI14" s="267"/>
       <c r="AJ14" s="22"/>
       <c r="AK14" s="22"/>
       <c r="AL14" s="22"/>
@@ -17761,40 +17822,40 @@
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A15" s="57"/>
-      <c r="B15" s="144"/>
-      <c r="C15" s="145"/>
-      <c r="D15" s="145"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
-      <c r="P15" s="262"/>
-      <c r="Q15" s="262"/>
-      <c r="R15" s="262"/>
-      <c r="S15" s="262"/>
-      <c r="T15" s="262"/>
-      <c r="U15" s="262"/>
-      <c r="V15" s="262"/>
-      <c r="W15" s="262"/>
-      <c r="X15" s="262"/>
-      <c r="Y15" s="260"/>
-      <c r="Z15" s="260"/>
-      <c r="AA15" s="260"/>
-      <c r="AB15" s="260"/>
-      <c r="AC15" s="260"/>
-      <c r="AD15" s="260"/>
-      <c r="AE15" s="260"/>
-      <c r="AF15" s="260"/>
-      <c r="AG15" s="260"/>
-      <c r="AH15" s="260"/>
-      <c r="AI15" s="260"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="268"/>
+      <c r="K15" s="268"/>
+      <c r="L15" s="268"/>
+      <c r="M15" s="268"/>
+      <c r="N15" s="268"/>
+      <c r="O15" s="268"/>
+      <c r="P15" s="268"/>
+      <c r="Q15" s="268"/>
+      <c r="R15" s="268"/>
+      <c r="S15" s="268"/>
+      <c r="T15" s="268"/>
+      <c r="U15" s="268"/>
+      <c r="V15" s="268"/>
+      <c r="W15" s="268"/>
+      <c r="X15" s="268"/>
+      <c r="Y15" s="267"/>
+      <c r="Z15" s="267"/>
+      <c r="AA15" s="267"/>
+      <c r="AB15" s="267"/>
+      <c r="AC15" s="267"/>
+      <c r="AD15" s="267"/>
+      <c r="AE15" s="267"/>
+      <c r="AF15" s="267"/>
+      <c r="AG15" s="267"/>
+      <c r="AH15" s="267"/>
+      <c r="AI15" s="267"/>
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
       <c r="AL15" s="22"/>
@@ -17833,40 +17894,40 @@
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A16" s="57"/>
-      <c r="B16" s="264"/>
-      <c r="C16" s="262"/>
-      <c r="D16" s="262"/>
-      <c r="E16" s="262"/>
-      <c r="F16" s="262"/>
-      <c r="G16" s="262"/>
-      <c r="H16" s="262"/>
-      <c r="I16" s="262"/>
-      <c r="J16" s="262"/>
-      <c r="K16" s="262"/>
-      <c r="L16" s="262"/>
-      <c r="M16" s="262"/>
-      <c r="N16" s="262"/>
-      <c r="O16" s="262"/>
-      <c r="P16" s="262"/>
-      <c r="Q16" s="262"/>
-      <c r="R16" s="262"/>
-      <c r="S16" s="262"/>
-      <c r="T16" s="262"/>
-      <c r="U16" s="262"/>
-      <c r="V16" s="262"/>
-      <c r="W16" s="262"/>
-      <c r="X16" s="262"/>
-      <c r="Y16" s="260"/>
-      <c r="Z16" s="260"/>
-      <c r="AA16" s="260"/>
-      <c r="AB16" s="260"/>
-      <c r="AC16" s="260"/>
-      <c r="AD16" s="260"/>
-      <c r="AE16" s="260"/>
-      <c r="AF16" s="260"/>
-      <c r="AG16" s="260"/>
-      <c r="AH16" s="260"/>
-      <c r="AI16" s="260"/>
+      <c r="B16" s="277"/>
+      <c r="C16" s="268"/>
+      <c r="D16" s="268"/>
+      <c r="E16" s="268"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="268"/>
+      <c r="J16" s="268"/>
+      <c r="K16" s="268"/>
+      <c r="L16" s="268"/>
+      <c r="M16" s="268"/>
+      <c r="N16" s="268"/>
+      <c r="O16" s="268"/>
+      <c r="P16" s="268"/>
+      <c r="Q16" s="268"/>
+      <c r="R16" s="268"/>
+      <c r="S16" s="268"/>
+      <c r="T16" s="268"/>
+      <c r="U16" s="268"/>
+      <c r="V16" s="268"/>
+      <c r="W16" s="268"/>
+      <c r="X16" s="268"/>
+      <c r="Y16" s="267"/>
+      <c r="Z16" s="267"/>
+      <c r="AA16" s="267"/>
+      <c r="AB16" s="267"/>
+      <c r="AC16" s="267"/>
+      <c r="AD16" s="267"/>
+      <c r="AE16" s="267"/>
+      <c r="AF16" s="267"/>
+      <c r="AG16" s="267"/>
+      <c r="AH16" s="267"/>
+      <c r="AI16" s="267"/>
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
       <c r="AL16" s="22"/>
@@ -17905,40 +17966,40 @@
     </row>
     <row r="17" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A17" s="57"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="264"/>
-      <c r="I17" s="264"/>
-      <c r="J17" s="262"/>
-      <c r="K17" s="262"/>
-      <c r="L17" s="262"/>
-      <c r="M17" s="262"/>
-      <c r="N17" s="262"/>
-      <c r="O17" s="262"/>
-      <c r="P17" s="262"/>
-      <c r="Q17" s="262"/>
-      <c r="R17" s="262"/>
-      <c r="S17" s="262"/>
-      <c r="T17" s="262"/>
-      <c r="U17" s="262"/>
-      <c r="V17" s="262"/>
-      <c r="W17" s="262"/>
-      <c r="X17" s="262"/>
-      <c r="Y17" s="260"/>
-      <c r="Z17" s="260"/>
-      <c r="AA17" s="260"/>
-      <c r="AB17" s="260"/>
-      <c r="AC17" s="260"/>
-      <c r="AD17" s="260"/>
-      <c r="AE17" s="260"/>
-      <c r="AF17" s="260"/>
-      <c r="AG17" s="260"/>
-      <c r="AH17" s="260"/>
-      <c r="AI17" s="260"/>
+      <c r="B17" s="277"/>
+      <c r="C17" s="277"/>
+      <c r="D17" s="277"/>
+      <c r="E17" s="277"/>
+      <c r="F17" s="277"/>
+      <c r="G17" s="277"/>
+      <c r="H17" s="277"/>
+      <c r="I17" s="277"/>
+      <c r="J17" s="268"/>
+      <c r="K17" s="268"/>
+      <c r="L17" s="268"/>
+      <c r="M17" s="268"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
+      <c r="P17" s="268"/>
+      <c r="Q17" s="268"/>
+      <c r="R17" s="268"/>
+      <c r="S17" s="268"/>
+      <c r="T17" s="268"/>
+      <c r="U17" s="268"/>
+      <c r="V17" s="268"/>
+      <c r="W17" s="268"/>
+      <c r="X17" s="268"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="267"/>
+      <c r="AG17" s="267"/>
+      <c r="AH17" s="267"/>
+      <c r="AI17" s="267"/>
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
@@ -17977,40 +18038,40 @@
     </row>
     <row r="18" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A18" s="57"/>
-      <c r="B18" s="262"/>
-      <c r="C18" s="262"/>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="262"/>
-      <c r="K18" s="262"/>
-      <c r="L18" s="262"/>
-      <c r="M18" s="262"/>
-      <c r="N18" s="262"/>
-      <c r="O18" s="262"/>
-      <c r="P18" s="262"/>
-      <c r="Q18" s="262"/>
-      <c r="R18" s="262"/>
-      <c r="S18" s="262"/>
-      <c r="T18" s="262"/>
-      <c r="U18" s="262"/>
-      <c r="V18" s="262"/>
-      <c r="W18" s="262"/>
-      <c r="X18" s="262"/>
-      <c r="Y18" s="260"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="260"/>
-      <c r="AB18" s="260"/>
-      <c r="AC18" s="260"/>
-      <c r="AD18" s="260"/>
-      <c r="AE18" s="260"/>
-      <c r="AF18" s="260"/>
-      <c r="AG18" s="260"/>
-      <c r="AH18" s="260"/>
-      <c r="AI18" s="260"/>
+      <c r="B18" s="268"/>
+      <c r="C18" s="268"/>
+      <c r="D18" s="268"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="268"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="268"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
+      <c r="P18" s="268"/>
+      <c r="Q18" s="268"/>
+      <c r="R18" s="268"/>
+      <c r="S18" s="268"/>
+      <c r="T18" s="268"/>
+      <c r="U18" s="268"/>
+      <c r="V18" s="268"/>
+      <c r="W18" s="268"/>
+      <c r="X18" s="268"/>
+      <c r="Y18" s="267"/>
+      <c r="Z18" s="267"/>
+      <c r="AA18" s="267"/>
+      <c r="AB18" s="267"/>
+      <c r="AC18" s="267"/>
+      <c r="AD18" s="267"/>
+      <c r="AE18" s="267"/>
+      <c r="AF18" s="267"/>
+      <c r="AG18" s="267"/>
+      <c r="AH18" s="267"/>
+      <c r="AI18" s="267"/>
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
@@ -18049,40 +18110,40 @@
     </row>
     <row r="19" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A19" s="57"/>
-      <c r="B19" s="262"/>
-      <c r="C19" s="262"/>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
-      <c r="L19" s="262"/>
-      <c r="M19" s="262"/>
-      <c r="N19" s="262"/>
-      <c r="O19" s="262"/>
-      <c r="P19" s="262"/>
-      <c r="Q19" s="262"/>
-      <c r="R19" s="262"/>
-      <c r="S19" s="262"/>
-      <c r="T19" s="262"/>
-      <c r="U19" s="262"/>
-      <c r="V19" s="262"/>
-      <c r="W19" s="262"/>
-      <c r="X19" s="262"/>
-      <c r="Y19" s="260"/>
-      <c r="Z19" s="260"/>
-      <c r="AA19" s="260"/>
-      <c r="AB19" s="260"/>
-      <c r="AC19" s="260"/>
-      <c r="AD19" s="260"/>
-      <c r="AE19" s="260"/>
-      <c r="AF19" s="260"/>
-      <c r="AG19" s="260"/>
-      <c r="AH19" s="260"/>
-      <c r="AI19" s="260"/>
+      <c r="B19" s="268"/>
+      <c r="C19" s="268"/>
+      <c r="D19" s="268"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="268"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="268"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="268"/>
+      <c r="Q19" s="268"/>
+      <c r="R19" s="268"/>
+      <c r="S19" s="268"/>
+      <c r="T19" s="268"/>
+      <c r="U19" s="268"/>
+      <c r="V19" s="268"/>
+      <c r="W19" s="268"/>
+      <c r="X19" s="268"/>
+      <c r="Y19" s="267"/>
+      <c r="Z19" s="267"/>
+      <c r="AA19" s="267"/>
+      <c r="AB19" s="267"/>
+      <c r="AC19" s="267"/>
+      <c r="AD19" s="267"/>
+      <c r="AE19" s="267"/>
+      <c r="AF19" s="267"/>
+      <c r="AG19" s="267"/>
+      <c r="AH19" s="267"/>
+      <c r="AI19" s="267"/>
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
@@ -18121,272 +18182,255 @@
     </row>
     <row r="20" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A20" s="57"/>
-      <c r="B20" s="264"/>
-      <c r="C20" s="262"/>
-      <c r="D20" s="262"/>
-      <c r="E20" s="262"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="262"/>
-      <c r="I20" s="262"/>
-      <c r="J20" s="262"/>
-      <c r="K20" s="262"/>
-      <c r="L20" s="262"/>
-      <c r="M20" s="262"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="262"/>
-      <c r="P20" s="262"/>
-      <c r="Q20" s="262"/>
-      <c r="R20" s="262"/>
-      <c r="S20" s="262"/>
-      <c r="T20" s="262"/>
-      <c r="U20" s="262"/>
-      <c r="V20" s="262"/>
-      <c r="W20" s="262"/>
-      <c r="X20" s="262"/>
-      <c r="Y20" s="260"/>
-      <c r="Z20" s="260"/>
-      <c r="AA20" s="260"/>
-      <c r="AB20" s="260"/>
-      <c r="AC20" s="260"/>
-      <c r="AD20" s="260"/>
-      <c r="AE20" s="260"/>
-      <c r="AF20" s="260"/>
-      <c r="AG20" s="260"/>
-      <c r="AH20" s="260"/>
-      <c r="AI20" s="260"/>
+      <c r="B20" s="277"/>
+      <c r="C20" s="268"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="268"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="268"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
+      <c r="P20" s="268"/>
+      <c r="Q20" s="268"/>
+      <c r="R20" s="268"/>
+      <c r="S20" s="268"/>
+      <c r="T20" s="268"/>
+      <c r="U20" s="268"/>
+      <c r="V20" s="268"/>
+      <c r="W20" s="268"/>
+      <c r="X20" s="268"/>
+      <c r="Y20" s="267"/>
+      <c r="Z20" s="267"/>
+      <c r="AA20" s="267"/>
+      <c r="AB20" s="267"/>
+      <c r="AC20" s="267"/>
+      <c r="AD20" s="267"/>
+      <c r="AE20" s="267"/>
+      <c r="AF20" s="267"/>
+      <c r="AG20" s="267"/>
+      <c r="AH20" s="267"/>
+      <c r="AI20" s="267"/>
     </row>
     <row r="21" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A21" s="57"/>
-      <c r="B21" s="264"/>
-      <c r="C21" s="262"/>
-      <c r="D21" s="262"/>
-      <c r="E21" s="262"/>
-      <c r="F21" s="262"/>
-      <c r="G21" s="262"/>
-      <c r="H21" s="262"/>
-      <c r="I21" s="262"/>
-      <c r="J21" s="262"/>
-      <c r="K21" s="262"/>
-      <c r="L21" s="262"/>
-      <c r="M21" s="262"/>
-      <c r="N21" s="262"/>
-      <c r="O21" s="262"/>
-      <c r="P21" s="262"/>
-      <c r="Q21" s="262"/>
-      <c r="R21" s="262"/>
-      <c r="S21" s="262"/>
-      <c r="T21" s="262"/>
-      <c r="U21" s="262"/>
-      <c r="V21" s="262"/>
-      <c r="W21" s="262"/>
-      <c r="X21" s="262"/>
-      <c r="Y21" s="260"/>
-      <c r="Z21" s="260"/>
-      <c r="AA21" s="260"/>
-      <c r="AB21" s="260"/>
-      <c r="AC21" s="260"/>
-      <c r="AD21" s="260"/>
-      <c r="AE21" s="260"/>
-      <c r="AF21" s="260"/>
-      <c r="AG21" s="260"/>
-      <c r="AH21" s="260"/>
-      <c r="AI21" s="260"/>
+      <c r="B21" s="277"/>
+      <c r="C21" s="268"/>
+      <c r="D21" s="268"/>
+      <c r="E21" s="268"/>
+      <c r="F21" s="268"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="268"/>
+      <c r="J21" s="268"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="268"/>
+      <c r="M21" s="268"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="268"/>
+      <c r="R21" s="268"/>
+      <c r="S21" s="268"/>
+      <c r="T21" s="268"/>
+      <c r="U21" s="268"/>
+      <c r="V21" s="268"/>
+      <c r="W21" s="268"/>
+      <c r="X21" s="268"/>
+      <c r="Y21" s="267"/>
+      <c r="Z21" s="267"/>
+      <c r="AA21" s="267"/>
+      <c r="AB21" s="267"/>
+      <c r="AC21" s="267"/>
+      <c r="AD21" s="267"/>
+      <c r="AE21" s="267"/>
+      <c r="AF21" s="267"/>
+      <c r="AG21" s="267"/>
+      <c r="AH21" s="267"/>
+      <c r="AI21" s="267"/>
     </row>
     <row r="22" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A22" s="57"/>
-      <c r="B22" s="264"/>
-      <c r="C22" s="262"/>
-      <c r="D22" s="262"/>
-      <c r="E22" s="262"/>
-      <c r="F22" s="262"/>
-      <c r="G22" s="262"/>
-      <c r="H22" s="262"/>
-      <c r="I22" s="262"/>
-      <c r="J22" s="262"/>
-      <c r="K22" s="262"/>
-      <c r="L22" s="262"/>
-      <c r="M22" s="262"/>
-      <c r="N22" s="262"/>
-      <c r="O22" s="262"/>
-      <c r="P22" s="262"/>
-      <c r="Q22" s="262"/>
-      <c r="R22" s="262"/>
-      <c r="S22" s="262"/>
-      <c r="T22" s="262"/>
-      <c r="U22" s="262"/>
-      <c r="V22" s="262"/>
-      <c r="W22" s="262"/>
-      <c r="X22" s="262"/>
-      <c r="Y22" s="260"/>
-      <c r="Z22" s="260"/>
-      <c r="AA22" s="260"/>
-      <c r="AB22" s="260"/>
-      <c r="AC22" s="260"/>
-      <c r="AD22" s="260"/>
-      <c r="AE22" s="260"/>
-      <c r="AF22" s="260"/>
-      <c r="AG22" s="260"/>
-      <c r="AH22" s="260"/>
-      <c r="AI22" s="260"/>
+      <c r="B22" s="277"/>
+      <c r="C22" s="268"/>
+      <c r="D22" s="268"/>
+      <c r="E22" s="268"/>
+      <c r="F22" s="268"/>
+      <c r="G22" s="268"/>
+      <c r="H22" s="268"/>
+      <c r="I22" s="268"/>
+      <c r="J22" s="268"/>
+      <c r="K22" s="268"/>
+      <c r="L22" s="268"/>
+      <c r="M22" s="268"/>
+      <c r="N22" s="268"/>
+      <c r="O22" s="268"/>
+      <c r="P22" s="268"/>
+      <c r="Q22" s="268"/>
+      <c r="R22" s="268"/>
+      <c r="S22" s="268"/>
+      <c r="T22" s="268"/>
+      <c r="U22" s="268"/>
+      <c r="V22" s="268"/>
+      <c r="W22" s="268"/>
+      <c r="X22" s="268"/>
+      <c r="Y22" s="267"/>
+      <c r="Z22" s="267"/>
+      <c r="AA22" s="267"/>
+      <c r="AB22" s="267"/>
+      <c r="AC22" s="267"/>
+      <c r="AD22" s="267"/>
+      <c r="AE22" s="267"/>
+      <c r="AF22" s="267"/>
+      <c r="AG22" s="267"/>
+      <c r="AH22" s="267"/>
+      <c r="AI22" s="267"/>
     </row>
     <row r="23" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
-      <c r="B23" s="262"/>
-      <c r="C23" s="262"/>
-      <c r="D23" s="262"/>
-      <c r="E23" s="262"/>
-      <c r="F23" s="262"/>
-      <c r="G23" s="262"/>
-      <c r="H23" s="262"/>
-      <c r="I23" s="262"/>
-      <c r="J23" s="264"/>
-      <c r="K23" s="264"/>
-      <c r="L23" s="264"/>
-      <c r="M23" s="264"/>
-      <c r="N23" s="264"/>
-      <c r="O23" s="264"/>
-      <c r="P23" s="264"/>
-      <c r="Q23" s="264"/>
-      <c r="R23" s="264"/>
-      <c r="S23" s="264"/>
-      <c r="T23" s="264"/>
-      <c r="U23" s="264"/>
-      <c r="V23" s="264"/>
-      <c r="W23" s="264"/>
-      <c r="X23" s="264"/>
-      <c r="Y23" s="260"/>
-      <c r="Z23" s="260"/>
-      <c r="AA23" s="260"/>
-      <c r="AB23" s="260"/>
-      <c r="AC23" s="260"/>
-      <c r="AD23" s="260"/>
-      <c r="AE23" s="260"/>
-      <c r="AF23" s="260"/>
-      <c r="AG23" s="260"/>
-      <c r="AH23" s="260"/>
-      <c r="AI23" s="260"/>
+      <c r="B23" s="268"/>
+      <c r="C23" s="268"/>
+      <c r="D23" s="268"/>
+      <c r="E23" s="268"/>
+      <c r="F23" s="268"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="268"/>
+      <c r="J23" s="277"/>
+      <c r="K23" s="277"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="277"/>
+      <c r="N23" s="277"/>
+      <c r="O23" s="277"/>
+      <c r="P23" s="277"/>
+      <c r="Q23" s="277"/>
+      <c r="R23" s="277"/>
+      <c r="S23" s="277"/>
+      <c r="T23" s="277"/>
+      <c r="U23" s="277"/>
+      <c r="V23" s="277"/>
+      <c r="W23" s="277"/>
+      <c r="X23" s="277"/>
+      <c r="Y23" s="267"/>
+      <c r="Z23" s="267"/>
+      <c r="AA23" s="267"/>
+      <c r="AB23" s="267"/>
+      <c r="AC23" s="267"/>
+      <c r="AD23" s="267"/>
+      <c r="AE23" s="267"/>
+      <c r="AF23" s="267"/>
+      <c r="AG23" s="267"/>
+      <c r="AH23" s="267"/>
+      <c r="AI23" s="267"/>
     </row>
     <row r="24" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A24" s="57"/>
-      <c r="B24" s="262"/>
-      <c r="C24" s="262"/>
-      <c r="D24" s="262"/>
-      <c r="E24" s="262"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="262"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="262"/>
-      <c r="J24" s="264"/>
-      <c r="K24" s="264"/>
-      <c r="L24" s="264"/>
-      <c r="M24" s="264"/>
-      <c r="N24" s="264"/>
-      <c r="O24" s="264"/>
-      <c r="P24" s="264"/>
-      <c r="Q24" s="264"/>
-      <c r="R24" s="264"/>
-      <c r="S24" s="264"/>
-      <c r="T24" s="264"/>
-      <c r="U24" s="264"/>
-      <c r="V24" s="264"/>
-      <c r="W24" s="264"/>
-      <c r="X24" s="264"/>
-      <c r="Y24" s="260"/>
-      <c r="Z24" s="260"/>
-      <c r="AA24" s="260"/>
-      <c r="AB24" s="260"/>
-      <c r="AC24" s="260"/>
-      <c r="AD24" s="260"/>
-      <c r="AE24" s="260"/>
-      <c r="AF24" s="260"/>
-      <c r="AG24" s="260"/>
-      <c r="AH24" s="260"/>
-      <c r="AI24" s="260"/>
+      <c r="B24" s="268"/>
+      <c r="C24" s="268"/>
+      <c r="D24" s="268"/>
+      <c r="E24" s="268"/>
+      <c r="F24" s="268"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="268"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="277"/>
+      <c r="K24" s="277"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="277"/>
+      <c r="N24" s="277"/>
+      <c r="O24" s="277"/>
+      <c r="P24" s="277"/>
+      <c r="Q24" s="277"/>
+      <c r="R24" s="277"/>
+      <c r="S24" s="277"/>
+      <c r="T24" s="277"/>
+      <c r="U24" s="277"/>
+      <c r="V24" s="277"/>
+      <c r="W24" s="277"/>
+      <c r="X24" s="277"/>
+      <c r="Y24" s="267"/>
+      <c r="Z24" s="267"/>
+      <c r="AA24" s="267"/>
+      <c r="AB24" s="267"/>
+      <c r="AC24" s="267"/>
+      <c r="AD24" s="267"/>
+      <c r="AE24" s="267"/>
+      <c r="AF24" s="267"/>
+      <c r="AG24" s="267"/>
+      <c r="AH24" s="267"/>
+      <c r="AI24" s="267"/>
     </row>
     <row r="25" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A25" s="57"/>
-      <c r="B25" s="262"/>
-      <c r="C25" s="262"/>
-      <c r="D25" s="262"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262"/>
-      <c r="H25" s="262"/>
-      <c r="I25" s="262"/>
-      <c r="J25" s="264"/>
-      <c r="K25" s="264"/>
-      <c r="L25" s="264"/>
-      <c r="M25" s="264"/>
-      <c r="N25" s="264"/>
-      <c r="O25" s="264"/>
-      <c r="P25" s="264"/>
-      <c r="Q25" s="264"/>
-      <c r="R25" s="264"/>
-      <c r="S25" s="264"/>
-      <c r="T25" s="264"/>
-      <c r="U25" s="264"/>
-      <c r="V25" s="264"/>
-      <c r="W25" s="264"/>
-      <c r="X25" s="264"/>
-      <c r="Y25" s="260"/>
-      <c r="Z25" s="260"/>
-      <c r="AA25" s="260"/>
-      <c r="AB25" s="260"/>
-      <c r="AC25" s="260"/>
-      <c r="AD25" s="260"/>
-      <c r="AE25" s="260"/>
-      <c r="AF25" s="260"/>
-      <c r="AG25" s="260"/>
-      <c r="AH25" s="260"/>
-      <c r="AI25" s="260"/>
+      <c r="B25" s="268"/>
+      <c r="C25" s="268"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="268"/>
+      <c r="G25" s="268"/>
+      <c r="H25" s="268"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="277"/>
+      <c r="K25" s="277"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="277"/>
+      <c r="N25" s="277"/>
+      <c r="O25" s="277"/>
+      <c r="P25" s="277"/>
+      <c r="Q25" s="277"/>
+      <c r="R25" s="277"/>
+      <c r="S25" s="277"/>
+      <c r="T25" s="277"/>
+      <c r="U25" s="277"/>
+      <c r="V25" s="277"/>
+      <c r="W25" s="277"/>
+      <c r="X25" s="277"/>
+      <c r="Y25" s="267"/>
+      <c r="Z25" s="267"/>
+      <c r="AA25" s="267"/>
+      <c r="AB25" s="267"/>
+      <c r="AC25" s="267"/>
+      <c r="AD25" s="267"/>
+      <c r="AE25" s="267"/>
+      <c r="AF25" s="267"/>
+      <c r="AG25" s="267"/>
+      <c r="AH25" s="267"/>
+      <c r="AI25" s="267"/>
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:X25"/>
-    <mergeCell ref="Y25:AB25"/>
-    <mergeCell ref="AC25:AI25"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="Y23:AB23"/>
-    <mergeCell ref="AC23:AI23"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:X24"/>
-    <mergeCell ref="Y24:AB24"/>
-    <mergeCell ref="AC24:AI24"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:X21"/>
-    <mergeCell ref="Y21:AB21"/>
-    <mergeCell ref="AC21:AI21"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:AB22"/>
-    <mergeCell ref="AC22:AI22"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="J19:X19"/>
-    <mergeCell ref="Y19:AB19"/>
-    <mergeCell ref="AC19:AI19"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="J20:X20"/>
-    <mergeCell ref="Y20:AB20"/>
-    <mergeCell ref="AC20:AI20"/>
-    <mergeCell ref="Y17:AB17"/>
-    <mergeCell ref="AC17:AI17"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:X18"/>
-    <mergeCell ref="Y18:AB18"/>
-    <mergeCell ref="AC18:AI18"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:X17"/>
-    <mergeCell ref="Y14:AB14"/>
-    <mergeCell ref="AC14:AI14"/>
-    <mergeCell ref="Y15:AB15"/>
-    <mergeCell ref="AC15:AI15"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:X16"/>
-    <mergeCell ref="Y16:AB16"/>
-    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:I9"/>
+    <mergeCell ref="J8:X9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:X12"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:X15"/>
+    <mergeCell ref="J10:X10"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:X14"/>
+    <mergeCell ref="Y10:AB10"/>
+    <mergeCell ref="AC10:AI10"/>
+    <mergeCell ref="Y13:AB13"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:X13"/>
+    <mergeCell ref="Y12:AB12"/>
+    <mergeCell ref="AC12:AI12"/>
+    <mergeCell ref="AC13:AI13"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E1:N1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="AC1:AF1"/>
@@ -18403,33 +18447,50 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:X15"/>
-    <mergeCell ref="J10:X10"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:X14"/>
-    <mergeCell ref="Y10:AB10"/>
-    <mergeCell ref="AC10:AI10"/>
-    <mergeCell ref="Y13:AB13"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:X13"/>
-    <mergeCell ref="Y12:AB12"/>
-    <mergeCell ref="AC12:AI12"/>
-    <mergeCell ref="AC13:AI13"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:I9"/>
-    <mergeCell ref="J8:X9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:X12"/>
-    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="Y14:AB14"/>
+    <mergeCell ref="AC14:AI14"/>
+    <mergeCell ref="Y15:AB15"/>
+    <mergeCell ref="AC15:AI15"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:X16"/>
+    <mergeCell ref="Y16:AB16"/>
+    <mergeCell ref="AC16:AI16"/>
+    <mergeCell ref="Y17:AB17"/>
+    <mergeCell ref="AC17:AI17"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:X18"/>
+    <mergeCell ref="Y18:AB18"/>
+    <mergeCell ref="AC18:AI18"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:X17"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="J19:X19"/>
+    <mergeCell ref="Y19:AB19"/>
+    <mergeCell ref="AC19:AI19"/>
+    <mergeCell ref="B20:I20"/>
+    <mergeCell ref="J20:X20"/>
+    <mergeCell ref="Y20:AB20"/>
+    <mergeCell ref="AC20:AI20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:X21"/>
+    <mergeCell ref="Y21:AB21"/>
+    <mergeCell ref="AC21:AI21"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:AB22"/>
+    <mergeCell ref="AC22:AI22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:X25"/>
+    <mergeCell ref="Y25:AB25"/>
+    <mergeCell ref="AC25:AI25"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="Y23:AB23"/>
+    <mergeCell ref="AC23:AI23"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:X24"/>
+    <mergeCell ref="Y24:AB24"/>
+    <mergeCell ref="AC24:AI24"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
